--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834A0E9-319D-4876-8AFF-C8C6427AB94E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B22A7FD-1101-4E80-AB7B-0C459179E2BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -229,6 +229,43 @@
   </si>
   <si>
     <t>クォン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成予定ファイルの一覧表</t>
+    <rPh sb="0" eb="4">
+      <t>サクセイヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通機能構造</t>
+    <rPh sb="0" eb="4">
+      <t>キョウツウキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI構造</t>
+    <rPh sb="2" eb="4">
+      <t>コウゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -484,6 +521,63 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,63 +595,6 @@
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:R6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -900,139 +937,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="25" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="22">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="16">
         <v>45078</v>
       </c>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="24"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="18"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="25" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="22">
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="16">
         <v>45107</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="18"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="29" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29" t="s">
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="28" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1157,41 +1194,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29" t="s">
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1314,33 +1351,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1463,35 +1500,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
@@ -1524,43 +1561,43 @@
       <c r="BE7" s="10"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33">
         <v>45079</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33">
         <v>45082</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="12" t="s">
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
@@ -1593,43 +1630,43 @@
       <c r="BE8" s="10"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14">
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33">
         <v>45079</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14">
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>45082</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="12" t="s">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
@@ -1662,43 +1699,43 @@
       <c r="BE9" s="10"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33">
         <v>45079</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14">
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33">
         <v>45082</v>
       </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="12" t="s">
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
@@ -1731,35 +1768,35 @@
       <c r="BE10" s="10"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
@@ -1792,43 +1829,43 @@
       <c r="BE11" s="10"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33">
         <v>45082</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14">
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33">
         <v>45084</v>
       </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -1861,43 +1898,43 @@
       <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15">
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="34">
         <v>45083</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="14">
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="33">
         <v>45084</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12" t="s">
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -1930,43 +1967,43 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33">
         <v>45083</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14">
-        <v>45084</v>
-      </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="12" t="s">
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33">
+        <v>45085</v>
+      </c>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -1974,7 +2011,7 @@
       <c r="AF14" s="10"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="10"/>
+      <c r="AI14" s="11"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
@@ -1999,35 +2036,35 @@
       <c r="BE14" s="10"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -2060,33 +2097,41 @@
       <c r="BE15" s="10"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33">
+        <v>45085</v>
+      </c>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33">
+        <v>45086</v>
+      </c>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -2094,8 +2139,8 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
       <c r="AM16" s="10"/>
@@ -2119,33 +2164,33 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
@@ -2178,35 +2223,35 @@
       <c r="BE17" s="10"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -2239,33 +2284,39 @@
       <c r="BE18" s="10"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33">
+        <v>45086</v>
+      </c>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -2274,7 +2325,7 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
+      <c r="AJ19" s="11"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
       <c r="AM19" s="10"/>
@@ -2298,33 +2349,39 @@
       <c r="BE19" s="10"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33">
+        <v>45086</v>
+      </c>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -2333,7 +2390,7 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
+      <c r="AJ20" s="11"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="10"/>
@@ -2357,35 +2414,35 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -2418,35 +2475,35 @@
       <c r="BE21" s="10"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -2479,35 +2536,35 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -2540,33 +2597,33 @@
       <c r="BE23" s="10"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -2599,33 +2656,33 @@
       <c r="BE24" s="10"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -2658,35 +2715,35 @@
       <c r="BE25" s="10"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2719,33 +2776,33 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2778,33 +2835,33 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2837,33 +2894,33 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -2904,140 +2961,24 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C19:G19"/>
@@ -3062,24 +3003,140 @@
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B22A7FD-1101-4E80-AB7B-0C459179E2BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ECEFC2-349A-4ED8-9E3C-AE40B7D1EE2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -210,13 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進行中</t>
-    <rPh sb="0" eb="3">
-      <t>シンコウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
@@ -265,6 +258,16 @@
     <t>UI構造</t>
     <rPh sb="2" eb="4">
       <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの担当割り振り</t>
+    <rPh sb="5" eb="8">
+      <t>タントウワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,6 +524,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,24 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -937,139 +940,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="19" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="16">
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="22">
         <v>45078</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="19" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="16">
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="22">
         <v>45107</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="18"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="23" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="22" t="s">
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1194,41 +1197,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1351,33 +1354,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1500,35 +1503,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
@@ -1561,43 +1564,43 @@
       <c r="BE7" s="10"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14">
         <v>45079</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14">
         <v>45082</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="31" t="s">
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
@@ -1630,43 +1633,43 @@
       <c r="BE8" s="10"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14">
         <v>45079</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14">
         <v>45082</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="31" t="s">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
@@ -1699,43 +1702,43 @@
       <c r="BE9" s="10"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14">
         <v>45079</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14">
         <v>45082</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="31" t="s">
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
@@ -1768,35 +1771,35 @@
       <c r="BE10" s="10"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
@@ -1829,43 +1832,43 @@
       <c r="BE11" s="10"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14">
         <v>45082</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33">
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14">
         <v>45084</v>
       </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="31" t="s">
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -1898,43 +1901,43 @@
       <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="34">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="15">
         <v>45083</v>
       </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="33">
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="14">
         <v>45084</v>
       </c>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="31" t="s">
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -1967,43 +1970,43 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14">
         <v>45083</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14">
         <v>45085</v>
       </c>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -2036,35 +2039,35 @@
       <c r="BE14" s="10"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -2097,41 +2100,41 @@
       <c r="BE15" s="10"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14">
         <v>45085</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14">
         <v>45086</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -2164,33 +2167,41 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14">
+        <v>45085</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14">
+        <v>45085</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
@@ -2198,8 +2209,8 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
       <c r="AM17" s="10"/>
@@ -2223,35 +2234,35 @@
       <c r="BE17" s="10"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -2284,39 +2295,39 @@
       <c r="BE18" s="10"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14">
         <v>45086</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -2349,39 +2360,39 @@
       <c r="BE19" s="10"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14">
         <v>45086</v>
       </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -2414,35 +2425,35 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -2475,35 +2486,35 @@
       <c r="BE21" s="10"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -2536,35 +2547,35 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -2597,33 +2608,33 @@
       <c r="BE23" s="10"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -2656,33 +2667,33 @@
       <c r="BE24" s="10"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -2715,35 +2726,35 @@
       <c r="BE25" s="10"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2776,33 +2787,33 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2835,33 +2846,33 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2894,33 +2905,33 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -2961,24 +2972,140 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C19:G19"/>
@@ -3003,140 +3130,24 @@
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ECEFC2-349A-4ED8-9E3C-AE40B7D1EE2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0BC142-5DC4-427D-90A6-E04C18BEEEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -524,6 +524,63 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,63 +598,6 @@
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -940,139 +940,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="25" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="22">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="16">
         <v>45078</v>
       </c>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="24"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="18"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="25" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="22">
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="16">
         <v>45107</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="18"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="29" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29" t="s">
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="28" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1197,41 +1197,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29" t="s">
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1354,33 +1354,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1503,35 +1503,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
@@ -1564,43 +1564,43 @@
       <c r="BE7" s="10"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33">
         <v>45079</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33">
         <v>45082</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="12" t="s">
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
@@ -1633,43 +1633,43 @@
       <c r="BE8" s="10"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14">
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33">
         <v>45079</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14">
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>45082</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="12" t="s">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
@@ -1702,43 +1702,43 @@
       <c r="BE9" s="10"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33">
         <v>45079</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14">
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33">
         <v>45082</v>
       </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="12" t="s">
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
@@ -1771,35 +1771,35 @@
       <c r="BE10" s="10"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
@@ -1832,43 +1832,43 @@
       <c r="BE11" s="10"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33">
         <v>45082</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14">
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33">
         <v>45084</v>
       </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12" t="s">
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -1901,43 +1901,43 @@
       <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15">
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="34">
         <v>45083</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="14">
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="33">
         <v>45084</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12" t="s">
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -1970,43 +1970,43 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33">
         <v>45083</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14">
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33">
         <v>45085</v>
       </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="12" t="s">
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -2039,35 +2039,35 @@
       <c r="BE14" s="10"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -2100,41 +2100,41 @@
       <c r="BE15" s="10"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14">
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33">
         <v>45085</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14">
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33">
         <v>45086</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12" t="s">
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -2167,41 +2167,41 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33">
         <v>45085</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14">
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33">
         <v>45085</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="12" t="s">
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
@@ -2234,35 +2234,35 @@
       <c r="BE17" s="10"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -2295,39 +2295,39 @@
       <c r="BE18" s="10"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14">
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33">
         <v>45086</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="12" t="s">
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -2360,39 +2360,39 @@
       <c r="BE19" s="10"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14">
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33">
         <v>45086</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="12" t="s">
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -2425,35 +2425,35 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -2486,35 +2486,35 @@
       <c r="BE21" s="10"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -2547,35 +2547,35 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -2608,33 +2608,33 @@
       <c r="BE23" s="10"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -2667,33 +2667,33 @@
       <c r="BE24" s="10"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -2726,35 +2726,35 @@
       <c r="BE25" s="10"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2787,33 +2787,33 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2846,33 +2846,33 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2905,33 +2905,33 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -2972,140 +2972,24 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C19:G19"/>
@@ -3130,24 +3014,140 @@
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0BC142-5DC4-427D-90A6-E04C18BEEEE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07458B-57B7-4B58-B35B-1C1215B2C8C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -110,27 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単体テスト</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -238,13 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共通機能構造</t>
     <rPh sb="0" eb="4">
       <t>キョウツウキノウ</t>
@@ -269,6 +241,45 @@
     <rPh sb="9" eb="10">
       <t>フ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事登録</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +535,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,23 +610,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:AC2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F12" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -940,139 +972,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="16">
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="22">
         <v>45078</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="19" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="16">
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="22">
         <v>45107</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="18"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="23" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="22" t="s">
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1197,41 +1229,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1354,33 +1386,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1503,35 +1535,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
@@ -1564,43 +1596,43 @@
       <c r="BE7" s="10"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14">
         <v>45079</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14">
         <v>45082</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
@@ -1633,43 +1665,43 @@
       <c r="BE8" s="10"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14">
         <v>45079</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14">
         <v>45082</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
@@ -1702,43 +1734,43 @@
       <c r="BE9" s="10"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14">
         <v>45079</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14">
         <v>45082</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
@@ -1771,35 +1803,35 @@
       <c r="BE10" s="10"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
@@ -1832,43 +1864,43 @@
       <c r="BE11" s="10"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14">
+        <v>45082</v>
+      </c>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14">
+        <v>45084</v>
+      </c>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33">
-        <v>45082</v>
-      </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33">
-        <v>45084</v>
-      </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -1901,43 +1933,43 @@
       <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="34">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="15">
         <v>45083</v>
       </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="33">
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="14">
         <v>45084</v>
       </c>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -1970,43 +2002,43 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14">
         <v>45083</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14">
         <v>45085</v>
       </c>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -2039,35 +2071,35 @@
       <c r="BE14" s="10"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -2100,41 +2132,41 @@
       <c r="BE15" s="10"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="33">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14">
         <v>45085</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33">
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14">
         <v>45086</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -2167,41 +2199,41 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14">
         <v>45085</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14">
         <v>45085</v>
       </c>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
@@ -2234,35 +2266,35 @@
       <c r="BE17" s="10"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -2295,39 +2327,41 @@
       <c r="BE18" s="10"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14">
         <v>45086</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -2339,18 +2373,18 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
       <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
       <c r="AY19" s="10"/>
       <c r="AZ19" s="10"/>
       <c r="BA19" s="10"/>
@@ -2360,39 +2394,41 @@
       <c r="BE19" s="10"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14">
         <v>45086</v>
       </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="39"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -2404,18 +2440,18 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
       <c r="AY20" s="10"/>
       <c r="AZ20" s="10"/>
       <c r="BA20" s="10"/>
@@ -2425,35 +2461,41 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="15">
+        <v>45089</v>
+      </c>
+      <c r="T21" s="16"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -2465,18 +2507,18 @@
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
       <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
       <c r="AY21" s="10"/>
       <c r="AZ21" s="10"/>
       <c r="BA21" s="10"/>
@@ -2486,35 +2528,41 @@
       <c r="BE21" s="10"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14">
+        <v>45086</v>
+      </c>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="39"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -2523,21 +2571,21 @@
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
+      <c r="AJ22" s="11"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
       <c r="AY22" s="10"/>
       <c r="AZ22" s="10"/>
       <c r="BA22" s="10"/>
@@ -2547,35 +2595,41 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14">
+        <v>45086</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -2584,21 +2638,21 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
+      <c r="AJ23" s="11"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
       <c r="BA23" s="10"/>
@@ -2608,33 +2662,41 @@
       <c r="BE23" s="10"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14">
+        <v>45086</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="39"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -2643,21 +2705,21 @@
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
+      <c r="AJ24" s="11"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
       <c r="AY24" s="10"/>
       <c r="AZ24" s="10"/>
       <c r="BA24" s="10"/>
@@ -2667,33 +2729,41 @@
       <c r="BE24" s="10"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14">
+        <v>45086</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -2702,21 +2772,21 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
+      <c r="AJ25" s="11"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
       <c r="AY25" s="10"/>
       <c r="AZ25" s="10"/>
       <c r="BA25" s="10"/>
@@ -2726,35 +2796,41 @@
       <c r="BE25" s="10"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14">
+        <v>45086</v>
+      </c>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14">
+        <v>45100</v>
+      </c>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="39"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2763,22 +2839,22 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
+      <c r="AJ26" s="11"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="10"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
@@ -2787,33 +2863,33 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2846,33 +2922,33 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2905,33 +2981,33 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -2963,7 +3039,15 @@
       <c r="BD29" s="4"/>
       <c r="BE29" s="4"/>
     </row>
-    <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+    </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2971,49 +3055,118 @@
     <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
+  <mergeCells count="175">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H22:O22"/>
@@ -3037,117 +3190,47 @@
     <mergeCell ref="V24:X24"/>
     <mergeCell ref="Y24:AA24"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07458B-57B7-4B58-B35B-1C1215B2C8C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8CF01C-7901-43CA-8D04-9B1380593C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -116,13 +116,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発表会</t>
-    <rPh sb="0" eb="3">
-      <t>ハッピョウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,23 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>共通機能構造</t>
-    <rPh sb="0" eb="4">
-      <t>キョウツウキノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI構造</t>
-    <rPh sb="2" eb="4">
-      <t>コウゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルの担当割り振り</t>
     <rPh sb="5" eb="8">
       <t>タントウワ</t>
@@ -244,43 +220,326 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
+    <t>食材のデータアクセス用DAO</t>
+  </si>
+  <si>
+    <t>記録のデータアクセス用DAO</t>
+  </si>
+  <si>
+    <t>User情報アクセス用DAO</t>
+  </si>
+  <si>
+    <t>FoodDao関連のデータ操作モデル</t>
+  </si>
+  <si>
+    <t>RegisterDao関連のデータ操作モデル</t>
+  </si>
+  <si>
+    <t>UserDao関連のデータ操作モデル</t>
+  </si>
+  <si>
+    <t>カレンダー画面用</t>
+  </si>
+  <si>
+    <t>品目登録画面用</t>
+  </si>
+  <si>
+    <t>グラフ画面用</t>
+  </si>
+  <si>
+    <t>個人情報変更画面用</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>食事ログ画面用</t>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロフィール画面用</t>
+  </si>
+  <si>
+    <t>秘密の質問画面用</t>
+  </si>
+  <si>
+    <t>トップ画面用</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録画面用</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カレンダー画面用css</t>
+  </si>
+  <si>
+    <t>全画面共通css</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>品目登録画面画面用css</t>
+  </si>
+  <si>
+    <t>グラフ画面用css</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>個人情報変更画面用css</t>
+    <rPh sb="0" eb="4">
+      <t>コジンジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>食事ログ画面用css</t>
+  </si>
+  <si>
+    <t>ログイン画面用css</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロフィール画面用css</t>
+  </si>
+  <si>
+    <t>秘密の質問用css</t>
+  </si>
+  <si>
+    <t>トップ画面用css</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録画面用css</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カレンダー画面用js（月移動、月変更）</t>
+  </si>
+  <si>
+    <t>全画面共通js</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>品目登録画面用js</t>
+  </si>
+  <si>
+    <t>グラフ用js</t>
+  </si>
+  <si>
+    <t>個人情報変更js</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>食事ログ画面用js</t>
+  </si>
+  <si>
+    <t>ログイン画面用js</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秘密の質問</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ハンバーガーメニューバー用js</t>
+  </si>
+  <si>
+    <t>秘密の質問用(ポップアップ画面)js</t>
+  </si>
+  <si>
+    <t>テキスト・アバター表示js</t>
+  </si>
+  <si>
+    <t>トップ画面用(スライド)js</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録画面用js</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カレンダー画面用jsp</t>
+  </si>
+  <si>
+    <t>品目登録画面用jsp</t>
+  </si>
+  <si>
+    <t>グラフ画面用jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>個人情報変更画面用jsp</t>
+    <rPh sb="0" eb="6">
+      <t>コジンジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>食事ログ画面用jsp</t>
+  </si>
+  <si>
+    <t>ログイン画面用jsp</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロフィール画面用jsp</t>
+  </si>
+  <si>
+    <t>秘密の質問画面用jsp</t>
+  </si>
+  <si>
+    <t>トップ画面用jsp</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録画面用jsp</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>クォン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>柿崎</t>
     <rPh sb="0" eb="2">
-      <t>ヒミツ</t>
+      <t>カキザキ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>シツモン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食事登録</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>山本</t>
     <rPh sb="0" eb="2">
-      <t>ショクジ</t>
+      <t>ヤマモト</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>猪瀬</t>
+    <rPh sb="0" eb="2">
+      <t>イノセ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>石松</t>
+    <rPh sb="0" eb="2">
+      <t>イシマツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>猪瀬</t>
+    <rPh sb="0" eb="2">
+      <t>イノセ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>石松</t>
+    <rPh sb="0" eb="2">
+      <t>イシマツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>柿崎</t>
+    <rPh sb="0" eb="2">
+      <t>カキザキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -294,7 +553,7 @@
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -337,6 +596,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -370,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -492,13 +765,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,23 +854,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,7 +920,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,17 +950,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,15 +1315,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG36"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F12" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H18" zoomScale="101" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="3.25" style="1"/>
+    <col min="1" max="14" width="3.25" style="1"/>
+    <col min="15" max="15" width="9.25" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3.25" style="1"/>
     <col min="19" max="19" width="4.08203125" style="1" customWidth="1"/>
     <col min="20" max="27" width="3.25" style="1"/>
     <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
@@ -972,139 +1336,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="25" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="22">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="19">
         <v>45078</v>
       </c>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="24"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="25" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="22">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="19">
         <v>45107</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="21"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="29" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29" t="s">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="28" t="s">
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1229,41 +1593,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1386,33 +1750,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1535,35 +1899,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
@@ -1596,43 +1960,43 @@
       <c r="BE7" s="10"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36">
+        <v>45079</v>
+      </c>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36">
+        <v>45082</v>
+      </c>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14">
-        <v>45079</v>
-      </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14">
-        <v>45082</v>
-      </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
@@ -1665,43 +2029,43 @@
       <c r="BE8" s="10"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36">
+        <v>45079</v>
+      </c>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36">
+        <v>45082</v>
+      </c>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14">
-        <v>45079</v>
-      </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14">
-        <v>45082</v>
-      </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
@@ -1734,43 +2098,43 @@
       <c r="BE9" s="10"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36">
+        <v>45079</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36">
+        <v>45082</v>
+      </c>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14">
-        <v>45079</v>
-      </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14">
-        <v>45082</v>
-      </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
@@ -1803,35 +2167,35 @@
       <c r="BE10" s="10"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
@@ -1864,43 +2228,43 @@
       <c r="BE11" s="10"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36">
         <v>45082</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14">
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36">
         <v>45084</v>
       </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -1933,43 +2297,43 @@
       <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15">
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="37">
         <v>45083</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="14">
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="36">
         <v>45084</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -2002,43 +2366,43 @@
       <c r="BE13" s="10"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14">
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36">
         <v>45083</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14">
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36">
         <v>45085</v>
       </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -2071,35 +2435,35 @@
       <c r="BE14" s="10"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -2132,41 +2496,41 @@
       <c r="BE15" s="10"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36">
         <v>45085</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14">
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36">
         <v>45086</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -2199,41 +2563,41 @@
       <c r="BE16" s="10"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36">
         <v>45085</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14">
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36">
         <v>45085</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
@@ -2266,35 +2630,35 @@
       <c r="BE17" s="10"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -2327,41 +2691,37 @@
       <c r="BE18" s="10"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="37">
-        <v>0.15</v>
-      </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="47"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -2370,21 +2730,21 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="11"/>
+      <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
       <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
       <c r="AY19" s="10"/>
       <c r="AZ19" s="10"/>
       <c r="BA19" s="10"/>
@@ -2394,41 +2754,37 @@
       <c r="BE19" s="10"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="39"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="43"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -2437,21 +2793,21 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
-      <c r="AJ20" s="11"/>
+      <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
       <c r="AY20" s="10"/>
       <c r="AZ20" s="10"/>
       <c r="BA20" s="10"/>
@@ -2461,41 +2817,37 @@
       <c r="BE20" s="10"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="15">
-        <v>45089</v>
-      </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -2507,18 +2859,18 @@
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
       <c r="AY21" s="10"/>
       <c r="AZ21" s="10"/>
       <c r="BA21" s="10"/>
@@ -2528,41 +2880,37 @@
       <c r="BE21" s="10"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="39"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -2571,21 +2919,21 @@
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
-      <c r="AJ22" s="11"/>
+      <c r="AJ22" s="10"/>
       <c r="AK22" s="10"/>
       <c r="AL22" s="10"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
       <c r="AY22" s="10"/>
       <c r="AZ22" s="10"/>
       <c r="BA22" s="10"/>
@@ -2595,41 +2943,37 @@
       <c r="BE22" s="10"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -2638,21 +2982,21 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="11"/>
+      <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
       <c r="AZ23" s="10"/>
       <c r="BA23" s="10"/>
@@ -2662,41 +3006,37 @@
       <c r="BE23" s="10"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="39"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="43"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -2705,21 +3045,21 @@
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
-      <c r="AJ24" s="11"/>
+      <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
       <c r="AZ24" s="10"/>
       <c r="BA24" s="10"/>
@@ -2729,41 +3069,37 @@
       <c r="BE24" s="10"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -2772,21 +3108,21 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
-      <c r="AJ25" s="11"/>
+      <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
       <c r="AY25" s="10"/>
       <c r="AZ25" s="10"/>
       <c r="BA25" s="10"/>
@@ -2796,41 +3132,37 @@
       <c r="BE25" s="10"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14">
-        <v>45086</v>
-      </c>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14">
-        <v>45100</v>
-      </c>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="40">
-        <v>0.05</v>
-      </c>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="39"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="43"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2839,21 +3171,21 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
@@ -2863,33 +3195,37 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2922,33 +3258,37 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2981,33 +3321,37 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3040,22 +3384,3837 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+    </row>
+    <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+    </row>
+    <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="AZ32" s="4"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="4"/>
+    </row>
+    <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+    </row>
+    <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+    </row>
+    <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+    </row>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+    </row>
+    <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+    </row>
+    <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+    </row>
+    <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+    </row>
+    <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+    </row>
+    <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+    </row>
+    <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+    </row>
+    <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+    </row>
+    <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+    </row>
+    <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="4"/>
+      <c r="BB45" s="4"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+    </row>
+    <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+    </row>
+    <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
+    </row>
+    <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+    </row>
+    <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+    </row>
+    <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
+      <c r="BB50" s="4"/>
+      <c r="BC50" s="4"/>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+    </row>
+    <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+    </row>
+    <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+    </row>
+    <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+    </row>
+    <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+    </row>
+    <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="4"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="4"/>
+      <c r="AT55" s="4"/>
+      <c r="AU55" s="4"/>
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="4"/>
+      <c r="AY55" s="4"/>
+      <c r="AZ55" s="4"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="4"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="4"/>
+    </row>
+    <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+      <c r="AP56" s="4"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4"/>
+      <c r="AS56" s="4"/>
+      <c r="AT56" s="4"/>
+      <c r="AU56" s="4"/>
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="4"/>
+      <c r="AX56" s="4"/>
+      <c r="AY56" s="4"/>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4"/>
+      <c r="BC56" s="4"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+    </row>
+    <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+      <c r="AP57" s="4"/>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4"/>
+      <c r="AS57" s="4"/>
+      <c r="AT57" s="4"/>
+      <c r="AU57" s="4"/>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="4"/>
+      <c r="AX57" s="4"/>
+      <c r="AY57" s="4"/>
+      <c r="AZ57" s="4"/>
+      <c r="BA57" s="4"/>
+      <c r="BB57" s="4"/>
+      <c r="BC57" s="4"/>
+      <c r="BD57" s="4"/>
+      <c r="BE57" s="4"/>
+    </row>
+    <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+    </row>
+    <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
+      <c r="AS59" s="4"/>
+      <c r="AT59" s="4"/>
+      <c r="AU59" s="4"/>
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="4"/>
+      <c r="AX59" s="4"/>
+      <c r="AY59" s="4"/>
+      <c r="AZ59" s="4"/>
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4"/>
+      <c r="BC59" s="4"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+    </row>
+    <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+      <c r="AP60" s="4"/>
+      <c r="AQ60" s="4"/>
+      <c r="AR60" s="4"/>
+      <c r="AS60" s="4"/>
+      <c r="AT60" s="4"/>
+      <c r="AU60" s="4"/>
+      <c r="AV60" s="4"/>
+      <c r="AW60" s="4"/>
+      <c r="AX60" s="4"/>
+      <c r="AY60" s="4"/>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="4"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+    </row>
+    <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4"/>
+      <c r="AR61" s="4"/>
+      <c r="AS61" s="4"/>
+      <c r="AT61" s="4"/>
+      <c r="AU61" s="4"/>
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="4"/>
+      <c r="AX61" s="4"/>
+      <c r="AY61" s="4"/>
+      <c r="AZ61" s="4"/>
+      <c r="BA61" s="4"/>
+      <c r="BB61" s="4"/>
+      <c r="BC61" s="4"/>
+      <c r="BD61" s="4"/>
+      <c r="BE61" s="4"/>
+    </row>
+    <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
+      <c r="AR62" s="4"/>
+      <c r="AS62" s="4"/>
+      <c r="AT62" s="4"/>
+      <c r="AU62" s="4"/>
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
+      <c r="AY62" s="4"/>
+      <c r="AZ62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="4"/>
+      <c r="BD62" s="4"/>
+      <c r="BE62" s="4"/>
+    </row>
+    <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
+      <c r="AS63" s="4"/>
+      <c r="AT63" s="4"/>
+      <c r="AU63" s="4"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+    </row>
+    <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+    </row>
+    <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+    </row>
+    <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
+      <c r="AR66" s="4"/>
+      <c r="AS66" s="4"/>
+      <c r="AT66" s="4"/>
+      <c r="AU66" s="4"/>
+      <c r="AV66" s="4"/>
+      <c r="AW66" s="4"/>
+      <c r="AX66" s="4"/>
+      <c r="AY66" s="4"/>
+      <c r="AZ66" s="4"/>
+      <c r="BA66" s="4"/>
+      <c r="BB66" s="4"/>
+      <c r="BC66" s="4"/>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="4"/>
+    </row>
+    <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
+      <c r="AM67" s="4"/>
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="4"/>
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="4"/>
+      <c r="AR67" s="4"/>
+      <c r="AS67" s="4"/>
+      <c r="AT67" s="4"/>
+      <c r="AU67" s="4"/>
+      <c r="AV67" s="4"/>
+      <c r="AW67" s="4"/>
+      <c r="AX67" s="4"/>
+      <c r="AY67" s="4"/>
+      <c r="AZ67" s="4"/>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4"/>
+      <c r="BC67" s="4"/>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="4"/>
+    </row>
+    <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+      <c r="AR68" s="4"/>
+      <c r="AS68" s="4"/>
+      <c r="AT68" s="4"/>
+      <c r="AU68" s="4"/>
+      <c r="AV68" s="4"/>
+      <c r="AW68" s="4"/>
+      <c r="AX68" s="4"/>
+      <c r="AY68" s="4"/>
+      <c r="AZ68" s="4"/>
+      <c r="BA68" s="4"/>
+      <c r="BB68" s="4"/>
+      <c r="BC68" s="4"/>
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="4"/>
+    </row>
+    <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+      <c r="AP69" s="4"/>
+      <c r="AQ69" s="4"/>
+      <c r="AR69" s="4"/>
+      <c r="AS69" s="4"/>
+      <c r="AT69" s="4"/>
+      <c r="AU69" s="4"/>
+      <c r="AV69" s="4"/>
+      <c r="AW69" s="4"/>
+      <c r="AX69" s="4"/>
+      <c r="AY69" s="4"/>
+      <c r="AZ69" s="4"/>
+      <c r="BA69" s="4"/>
+      <c r="BB69" s="4"/>
+      <c r="BC69" s="4"/>
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="4"/>
+    </row>
+    <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="4"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BB70" s="4"/>
+      <c r="BC70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+    </row>
+    <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="4"/>
+      <c r="AO71" s="4"/>
+      <c r="AP71" s="4"/>
+      <c r="AQ71" s="4"/>
+      <c r="AR71" s="4"/>
+      <c r="AS71" s="4"/>
+      <c r="AT71" s="4"/>
+      <c r="AU71" s="4"/>
+      <c r="AV71" s="4"/>
+      <c r="AW71" s="4"/>
+      <c r="AX71" s="4"/>
+      <c r="AY71" s="4"/>
+      <c r="AZ71" s="4"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="4"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="4"/>
+    </row>
+    <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+      <c r="AP72" s="4"/>
+      <c r="AQ72" s="4"/>
+      <c r="AR72" s="4"/>
+      <c r="AS72" s="4"/>
+      <c r="AT72" s="4"/>
+      <c r="AU72" s="4"/>
+      <c r="AV72" s="4"/>
+      <c r="AW72" s="4"/>
+      <c r="AX72" s="4"/>
+      <c r="AY72" s="4"/>
+      <c r="AZ72" s="4"/>
+      <c r="BA72" s="4"/>
+      <c r="BB72" s="4"/>
+      <c r="BC72" s="4"/>
+      <c r="BD72" s="4"/>
+      <c r="BE72" s="4"/>
+    </row>
+    <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
+      <c r="AS73" s="4"/>
+      <c r="AT73" s="4"/>
+      <c r="AU73" s="4"/>
+      <c r="AV73" s="4"/>
+      <c r="AW73" s="4"/>
+      <c r="AX73" s="4"/>
+      <c r="AY73" s="4"/>
+      <c r="AZ73" s="4"/>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4"/>
+      <c r="BC73" s="4"/>
+      <c r="BD73" s="4"/>
+      <c r="BE73" s="4"/>
+    </row>
+    <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
+      <c r="AP74" s="4"/>
+      <c r="AQ74" s="4"/>
+      <c r="AR74" s="4"/>
+      <c r="AS74" s="4"/>
+      <c r="AT74" s="4"/>
+      <c r="AU74" s="4"/>
+      <c r="AV74" s="4"/>
+      <c r="AW74" s="4"/>
+      <c r="AX74" s="4"/>
+      <c r="AY74" s="4"/>
+      <c r="AZ74" s="4"/>
+      <c r="BA74" s="4"/>
+      <c r="BB74" s="4"/>
+      <c r="BC74" s="4"/>
+      <c r="BD74" s="4"/>
+      <c r="BE74" s="4"/>
+    </row>
+    <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
+      <c r="AI75" s="4"/>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
+      <c r="AL75" s="4"/>
+      <c r="AM75" s="4"/>
+      <c r="AN75" s="4"/>
+      <c r="AO75" s="4"/>
+      <c r="AP75" s="4"/>
+      <c r="AQ75" s="4"/>
+      <c r="AR75" s="4"/>
+      <c r="AS75" s="4"/>
+      <c r="AT75" s="4"/>
+      <c r="AU75" s="4"/>
+      <c r="AV75" s="4"/>
+      <c r="AW75" s="4"/>
+      <c r="AX75" s="4"/>
+      <c r="AY75" s="4"/>
+      <c r="AZ75" s="4"/>
+      <c r="BA75" s="4"/>
+      <c r="BB75" s="4"/>
+      <c r="BC75" s="4"/>
+      <c r="BD75" s="4"/>
+      <c r="BE75" s="4"/>
+    </row>
+    <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="4"/>
+      <c r="AS76" s="4"/>
+      <c r="AT76" s="4"/>
+      <c r="AU76" s="4"/>
+      <c r="AV76" s="4"/>
+      <c r="AW76" s="4"/>
+      <c r="AX76" s="4"/>
+      <c r="AY76" s="4"/>
+      <c r="AZ76" s="4"/>
+      <c r="BA76" s="4"/>
+      <c r="BB76" s="4"/>
+      <c r="BC76" s="4"/>
+      <c r="BD76" s="4"/>
+      <c r="BE76" s="4"/>
+    </row>
+    <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
+      <c r="AR77" s="4"/>
+      <c r="AS77" s="4"/>
+      <c r="AT77" s="4"/>
+      <c r="AU77" s="4"/>
+      <c r="AV77" s="4"/>
+      <c r="AW77" s="4"/>
+      <c r="AX77" s="4"/>
+      <c r="AY77" s="4"/>
+      <c r="AZ77" s="4"/>
+      <c r="BA77" s="4"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="4"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="4"/>
+    </row>
+    <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
+      <c r="AR78" s="4"/>
+      <c r="AS78" s="4"/>
+      <c r="AT78" s="4"/>
+      <c r="AU78" s="4"/>
+      <c r="AV78" s="4"/>
+      <c r="AW78" s="4"/>
+      <c r="AX78" s="4"/>
+      <c r="AY78" s="4"/>
+      <c r="AZ78" s="4"/>
+      <c r="BA78" s="4"/>
+      <c r="BB78" s="4"/>
+      <c r="BC78" s="4"/>
+      <c r="BD78" s="4"/>
+      <c r="BE78" s="4"/>
+    </row>
+    <row r="79" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="48"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
+      <c r="AM79" s="4"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
+      <c r="AR79" s="4"/>
+      <c r="AS79" s="4"/>
+      <c r="AT79" s="4"/>
+      <c r="AU79" s="4"/>
+      <c r="AV79" s="4"/>
+      <c r="AW79" s="4"/>
+      <c r="AX79" s="4"/>
+      <c r="AY79" s="4"/>
+      <c r="AZ79" s="4"/>
+      <c r="BA79" s="4"/>
+      <c r="BB79" s="4"/>
+      <c r="BC79" s="4"/>
+      <c r="BD79" s="4"/>
+      <c r="BE79" s="4"/>
+    </row>
+    <row r="80" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="48"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
+      <c r="AM80" s="4"/>
+      <c r="AN80" s="4"/>
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="4"/>
+      <c r="AQ80" s="4"/>
+      <c r="AR80" s="4"/>
+      <c r="AS80" s="4"/>
+      <c r="AT80" s="4"/>
+      <c r="AU80" s="4"/>
+      <c r="AV80" s="4"/>
+      <c r="AW80" s="4"/>
+      <c r="AX80" s="4"/>
+      <c r="AY80" s="4"/>
+      <c r="AZ80" s="4"/>
+      <c r="BA80" s="4"/>
+      <c r="BB80" s="4"/>
+      <c r="BC80" s="4"/>
+      <c r="BD80" s="4"/>
+      <c r="BE80" s="4"/>
+    </row>
+    <row r="81" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H81" s="48"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="4"/>
+      <c r="AO81" s="4"/>
+      <c r="AP81" s="4"/>
+      <c r="AQ81" s="4"/>
+      <c r="AR81" s="4"/>
+      <c r="AS81" s="4"/>
+      <c r="AT81" s="4"/>
+      <c r="AU81" s="4"/>
+      <c r="AV81" s="4"/>
+      <c r="AW81" s="4"/>
+      <c r="AX81" s="4"/>
+      <c r="AY81" s="4"/>
+      <c r="AZ81" s="4"/>
+      <c r="BA81" s="4"/>
+      <c r="BB81" s="4"/>
+      <c r="BC81" s="4"/>
+      <c r="BD81" s="4"/>
+      <c r="BE81" s="4"/>
+    </row>
+    <row r="82" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H82" s="48"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+      <c r="AR82" s="4"/>
+      <c r="AS82" s="4"/>
+      <c r="AT82" s="4"/>
+      <c r="AU82" s="4"/>
+      <c r="AV82" s="4"/>
+      <c r="AW82" s="4"/>
+      <c r="AX82" s="4"/>
+      <c r="AY82" s="4"/>
+      <c r="AZ82" s="4"/>
+      <c r="BA82" s="4"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="4"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="4"/>
+    </row>
+    <row r="83" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="48"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AL83" s="4"/>
+      <c r="AM83" s="4"/>
+      <c r="AN83" s="4"/>
+      <c r="AO83" s="4"/>
+      <c r="AP83" s="4"/>
+      <c r="AQ83" s="4"/>
+      <c r="AR83" s="4"/>
+      <c r="AS83" s="4"/>
+      <c r="AT83" s="4"/>
+      <c r="AU83" s="4"/>
+      <c r="AV83" s="4"/>
+      <c r="AW83" s="4"/>
+      <c r="AX83" s="4"/>
+      <c r="AY83" s="4"/>
+      <c r="AZ83" s="4"/>
+      <c r="BA83" s="4"/>
+      <c r="BB83" s="4"/>
+      <c r="BC83" s="4"/>
+      <c r="BD83" s="4"/>
+      <c r="BE83" s="4"/>
+    </row>
+    <row r="84" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="48"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="4"/>
+      <c r="AH84" s="4"/>
+      <c r="AI84" s="4"/>
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="4"/>
+      <c r="AL84" s="4"/>
+      <c r="AM84" s="4"/>
+      <c r="AN84" s="4"/>
+      <c r="AO84" s="4"/>
+      <c r="AP84" s="4"/>
+      <c r="AQ84" s="4"/>
+      <c r="AR84" s="4"/>
+      <c r="AS84" s="4"/>
+      <c r="AT84" s="4"/>
+      <c r="AU84" s="4"/>
+      <c r="AV84" s="4"/>
+      <c r="AW84" s="4"/>
+      <c r="AX84" s="4"/>
+      <c r="AY84" s="4"/>
+      <c r="AZ84" s="4"/>
+      <c r="BA84" s="4"/>
+      <c r="BB84" s="4"/>
+      <c r="BC84" s="4"/>
+      <c r="BD84" s="4"/>
+      <c r="BE84" s="4"/>
+    </row>
+    <row r="85" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="48"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="50"/>
+    </row>
+    <row r="86" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="48"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="50"/>
+    </row>
+    <row r="87" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="48"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="50"/>
+    </row>
+    <row r="88" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H88" s="48"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="50"/>
+    </row>
+    <row r="89" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H89" s="48"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="50"/>
+    </row>
+    <row r="90" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="48"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="50"/>
+    </row>
+    <row r="91" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="48"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="50"/>
+    </row>
+    <row r="92" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="48"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="50"/>
+    </row>
+    <row r="93" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="48"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="50"/>
+    </row>
+    <row r="94" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="48"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="50"/>
+    </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="390">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AH2:AN2"/>
@@ -3071,166 +7230,6 @@
     <mergeCell ref="P4:R6"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8CF01C-7901-43CA-8D04-9B1380593C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E83F4-8AC1-430C-B9C0-2031ED81D6AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +621,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,20 +789,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -817,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,9 +853,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -862,6 +861,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,77 +976,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,8 +1311,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H18" zoomScale="101" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:R24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="69" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE26" sqref="BE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1336,139 +1329,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="22" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="19">
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="37">
         <v>45078</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="21"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="22" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="19">
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="37">
         <v>45107</v>
       </c>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="26" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26" t="s">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="25" t="s">
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1593,41 +1586,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26" t="s">
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1750,33 +1743,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1899,1270 +1892,1270 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="36">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22">
         <v>45079</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36">
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22">
         <v>45082</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="34" t="s">
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36">
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22">
         <v>45079</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36">
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>45082</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="34" t="s">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="36">
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22">
         <v>45079</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36">
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22">
         <v>45082</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="34" t="s">
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="36">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="22">
         <v>45082</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36">
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22">
         <v>45084</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="34" t="s">
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="37">
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="23">
         <v>45083</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="36">
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="22">
         <v>45084</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="34" t="s">
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="22">
         <v>45083</v>
       </c>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36">
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22">
         <v>45085</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="34" t="s">
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="22">
         <v>45085</v>
       </c>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36">
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22">
         <v>45086</v>
       </c>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="34" t="s">
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22">
         <v>45085</v>
       </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36">
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22">
         <v>45085</v>
       </c>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="34" t="s">
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="51" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="55" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="51" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="55" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="52" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="55" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="51" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="55" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
-      <c r="BB22" s="10"/>
-      <c r="BC22" s="10"/>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="51" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="55" t="s">
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="51" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="55" t="s">
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="51" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="44" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="10"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="52" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="44" t="s">
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="43"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="29"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3171,22 +3164,22 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
@@ -3195,37 +3188,37 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="52" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="44" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="29"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3258,37 +3251,37 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="52" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="44" t="s">
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3321,37 +3314,37 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="52" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="44" t="s">
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3384,37 +3377,37 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="52" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="44" t="s">
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3447,37 +3440,37 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="52" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="44" t="s">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3510,37 +3503,37 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="53" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="44" t="s">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3573,37 +3566,37 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="52" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="44" t="s">
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3636,37 +3629,37 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="52" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="44" t="s">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3699,37 +3692,37 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="52" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="44" t="s">
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3762,37 +3755,37 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="53" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="44" t="s">
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3825,37 +3818,37 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="52" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="44" t="s">
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3888,37 +3881,37 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="53" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="44" t="s">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -3951,37 +3944,37 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="52" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="44" t="s">
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4014,37 +4007,37 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="52" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="44" t="s">
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4077,37 +4070,37 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="52" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="44" t="s">
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4140,37 +4133,37 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="53" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="44" t="s">
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4203,37 +4196,37 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="53" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="44" t="s">
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4266,37 +4259,37 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="53" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="44" t="s">
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4329,37 +4322,37 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="53" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="44" t="s">
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4392,37 +4385,37 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="51" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="44" t="s">
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4455,37 +4448,37 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="52" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="44" t="s">
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4518,37 +4511,37 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="52" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="44" t="s">
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4581,37 +4574,37 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="52" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="44" t="s">
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4644,37 +4637,37 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="52" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="44" t="s">
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4707,37 +4700,37 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="52" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="44" t="s">
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4770,37 +4763,37 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="53" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="44" t="s">
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4833,37 +4826,37 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="52" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="44" t="s">
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -4896,37 +4889,37 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="52" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="44" t="s">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -4959,37 +4952,37 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="52" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="44" t="s">
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5022,37 +5015,37 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="52" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="44" t="s">
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5085,37 +5078,37 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="52" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="44" t="s">
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5148,37 +5141,37 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="52" t="s">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="44" t="s">
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5211,37 +5204,37 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="52" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="44" t="s">
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5274,37 +5267,37 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="52" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="44" t="s">
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5337,37 +5330,37 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="52" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="44" t="s">
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5400,37 +5393,37 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="52" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="44" t="s">
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5463,37 +5456,37 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="52" t="s">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="44" t="s">
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5526,37 +5519,37 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="52" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="44" t="s">
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5589,37 +5582,37 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="53" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="44" t="s">
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5652,37 +5645,37 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="52" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="44" t="s">
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5715,37 +5708,37 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="52" t="s">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="44" t="s">
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -5778,33 +5771,33 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -5837,33 +5830,33 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -5896,33 +5889,33 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -5955,33 +5948,33 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6014,33 +6007,33 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6073,33 +6066,33 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6132,33 +6125,33 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6191,33 +6184,33 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="22"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6250,33 +6243,33 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6309,33 +6302,33 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6368,33 +6361,33 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6427,26 +6420,26 @@
       <c r="BE78" s="4"/>
     </row>
     <row r="79" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H79" s="48"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6479,26 +6472,26 @@
       <c r="BE79" s="4"/>
     </row>
     <row r="80" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H80" s="48"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6531,26 +6524,26 @@
       <c r="BE80" s="4"/>
     </row>
     <row r="81" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H81" s="48"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6583,26 +6576,26 @@
       <c r="BE81" s="4"/>
     </row>
     <row r="82" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H82" s="48"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6635,26 +6628,26 @@
       <c r="BE82" s="4"/>
     </row>
     <row r="83" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H83" s="48"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6687,26 +6680,26 @@
       <c r="BE83" s="4"/>
     </row>
     <row r="84" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H84" s="48"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -6739,140 +6732,483 @@
       <c r="BE84" s="4"/>
     </row>
     <row r="85" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H85" s="48"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="50"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="17"/>
     </row>
     <row r="86" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="48"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="50"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="17"/>
     </row>
     <row r="87" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H87" s="48"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="50"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="17"/>
     </row>
     <row r="88" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H88" s="48"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="50"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="17"/>
     </row>
     <row r="89" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H89" s="48"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="50"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="17"/>
     </row>
     <row r="90" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H90" s="48"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
-      <c r="K90" s="49"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="50"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="17"/>
     </row>
     <row r="91" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H91" s="48"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="49"/>
-      <c r="O91" s="50"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="17"/>
     </row>
     <row r="92" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H92" s="48"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="49"/>
-      <c r="O92" s="50"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="17"/>
     </row>
     <row r="93" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H93" s="48"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="50"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="17"/>
     </row>
     <row r="94" spans="8:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H94" s="48"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="49"/>
-      <c r="O94" s="50"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="390">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+  <mergeCells count="433">
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
     <mergeCell ref="P83:R83"/>
     <mergeCell ref="S83:U83"/>
     <mergeCell ref="V83:X83"/>
@@ -6897,339 +7233,39 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E83F4-8AC1-430C-B9C0-2031ED81D6AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F8744-D142-442A-AC07-B605F84BBF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -238,52 +238,6 @@
     <t>UserDao関連のデータ操作モデル</t>
   </si>
   <si>
-    <t>カレンダー画面用</t>
-  </si>
-  <si>
-    <t>品目登録画面用</t>
-  </si>
-  <si>
-    <t>グラフ画面用</t>
-  </si>
-  <si>
-    <t>個人情報変更画面用</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>食事ログ画面用</t>
-  </si>
-  <si>
-    <t>ログイン画面用</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>プロフィール画面用</t>
-  </si>
-  <si>
-    <t>秘密の質問画面用</t>
-  </si>
-  <si>
-    <t>トップ画面用</t>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>登録画面用</t>
-    <rPh sb="2" eb="5">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>カレンダー画面用css</t>
   </si>
   <si>
@@ -540,6 +494,65 @@
       <t>カキザキ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カレンダー画面用servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目登録画面用servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ画面用servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報変更画面用servlet</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>食事ログ画面用servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用servlet</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロフィール画面用servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問画面用servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面用servlet</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録画面用servlet</t>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -553,7 +566,7 @@
     <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="180" formatCode="m"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -609,6 +622,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -819,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,43 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,14 +960,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,8 +1334,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="69" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE26" sqref="BE26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="V61" sqref="V61:X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1329,139 +1354,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="40" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="37">
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="25">
         <v>45078</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="27"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="40" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="37">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="25">
         <v>45107</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="27"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="43" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1586,41 +1611,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1743,33 +1768,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1892,35 +1917,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1953,43 +1978,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21" t="s">
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22">
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42">
         <v>45079</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22">
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42">
         <v>45082</v>
       </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="20" t="s">
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2022,43 +2047,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22">
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42">
         <v>45079</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42">
         <v>45082</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="20" t="s">
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2091,43 +2116,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22">
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42">
         <v>45079</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22">
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42">
         <v>45082</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="20" t="s">
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2160,35 +2185,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2221,43 +2246,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="22">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42">
         <v>45082</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22">
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42">
         <v>45084</v>
       </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="20" t="s">
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2290,43 +2315,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="23">
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="43">
         <v>45083</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="22">
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="42">
         <v>45084</v>
       </c>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="20" t="s">
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2359,43 +2384,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21" t="s">
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22">
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42">
         <v>45083</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22">
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42">
         <v>45085</v>
       </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="20" t="s">
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2428,35 +2453,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2489,41 +2514,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42">
         <v>45085</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22">
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42">
         <v>45086</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="20" t="s">
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2556,41 +2581,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22">
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="42">
         <v>45085</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22">
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42">
         <v>45085</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="20" t="s">
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2623,35 +2648,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2684,13 +2709,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2701,20 +2726,20 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="32"/>
+      <c r="P19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2747,13 +2772,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2764,20 +2789,20 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="29"/>
+      <c r="P20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="51"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2810,13 +2835,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2827,20 +2852,20 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
+      <c r="P21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2873,13 +2898,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2890,20 +2915,20 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="29"/>
+      <c r="P22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="51"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2936,13 +2961,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -2953,20 +2978,20 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
+      <c r="P23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2999,13 +3024,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3016,20 +3041,20 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="29"/>
+      <c r="P24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="51"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3062,15 +3087,15 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="18" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -3079,20 +3104,20 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
+      <c r="P25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3125,15 +3150,15 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="14" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -3142,20 +3167,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="29"/>
+      <c r="P26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="45">
+        <v>45090</v>
+      </c>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42">
+        <v>45091</v>
+      </c>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="51"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3168,13 +3199,13 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
       <c r="AP26" s="9"/>
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
+      <c r="AT26" s="55"/>
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
@@ -3188,15 +3219,15 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="14" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -3205,20 +3236,20 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="29"/>
+      <c r="P27" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="51"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3251,15 +3282,15 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="14" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -3268,20 +3299,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
+      <c r="P28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="45">
+        <v>45091</v>
+      </c>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42">
+        <v>45092</v>
+      </c>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3295,8 +3332,8 @@
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
@@ -3314,15 +3351,15 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="14" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -3331,20 +3368,20 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
+      <c r="P29" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3377,15 +3414,15 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="14" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -3394,20 +3431,20 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
+      <c r="P30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3440,15 +3477,15 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -3457,20 +3494,20 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
+      <c r="P31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3503,15 +3540,15 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
       <c r="H32" s="19" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -3520,20 +3557,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
+      <c r="P32" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3566,15 +3603,15 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -3583,20 +3620,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
+      <c r="P33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="45">
+        <v>45086</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42">
+        <v>45089</v>
+      </c>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3605,10 +3648,10 @@
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
+      <c r="AJ33" s="10"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="AM33" s="10"/>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
@@ -3629,15 +3672,15 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
       <c r="H34" s="14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -3646,20 +3689,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
+      <c r="P34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3692,15 +3735,15 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
       <c r="H35" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -3709,20 +3752,20 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
+      <c r="P35" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3755,15 +3798,15 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
       <c r="H36" s="19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -3772,20 +3815,20 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
+      <c r="P36" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3818,15 +3861,15 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
       <c r="H37" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -3835,20 +3878,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
+      <c r="P37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3881,15 +3924,15 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
       <c r="H38" s="19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -3898,20 +3941,20 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
+      <c r="P38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -3944,15 +3987,15 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
       <c r="H39" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -3961,20 +4004,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
+      <c r="P39" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4007,15 +4050,15 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
       <c r="H40" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
@@ -4024,20 +4067,20 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
+      <c r="P40" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4070,15 +4113,15 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="H41" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -4087,20 +4130,20 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
+      <c r="P41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4133,15 +4176,15 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
       <c r="H42" s="19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
@@ -4150,20 +4193,20 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
+      <c r="P42" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4196,15 +4239,15 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
       <c r="H43" s="19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -4213,20 +4256,20 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
+      <c r="P43" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4259,15 +4302,15 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
       <c r="H44" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
@@ -4276,20 +4319,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
+      <c r="P44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="45">
+        <v>45092</v>
+      </c>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42">
+        <v>45089</v>
+      </c>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4304,8 +4353,8 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
       <c r="AR44" s="4"/>
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
@@ -4322,15 +4371,15 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="H45" s="19" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
@@ -4339,20 +4388,20 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
+      <c r="P45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4385,15 +4434,15 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
       <c r="H46" s="18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -4402,20 +4451,20 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
+      <c r="P46" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4448,15 +4497,15 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -4465,20 +4514,20 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
+      <c r="P47" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4511,15 +4560,15 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="13"/>
       <c r="H48" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
@@ -4528,20 +4577,20 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
+      <c r="P48" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4574,15 +4623,15 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
       <c r="H49" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -4591,20 +4640,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
+      <c r="P49" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="45">
+        <v>45096</v>
+      </c>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42">
+        <v>45097</v>
+      </c>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4623,8 +4678,8 @@
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
       <c r="AS49" s="4"/>
-      <c r="AT49" s="4"/>
-      <c r="AU49" s="4"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
@@ -4637,15 +4692,15 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -4654,20 +4709,20 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
+      <c r="P50" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4700,15 +4755,15 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
       <c r="H51" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -4717,20 +4772,20 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
+      <c r="P51" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4763,15 +4818,15 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="13"/>
       <c r="H52" s="19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -4780,20 +4835,20 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
+      <c r="P52" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4826,15 +4881,15 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="13"/>
       <c r="H53" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -4843,20 +4898,20 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
+      <c r="P53" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -4889,15 +4944,15 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="13"/>
       <c r="H54" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -4906,20 +4961,20 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
+      <c r="P54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -4952,15 +5007,15 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="13"/>
       <c r="H55" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -4969,20 +5024,20 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
+      <c r="P55" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5015,15 +5070,15 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="13"/>
       <c r="H56" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
@@ -5032,20 +5087,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
+      <c r="P56" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="45">
+        <v>45086</v>
+      </c>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42">
+        <v>45089</v>
+      </c>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5054,10 +5115,10 @@
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
+      <c r="AJ56" s="10"/>
       <c r="AK56" s="4"/>
       <c r="AL56" s="4"/>
-      <c r="AM56" s="4"/>
+      <c r="AM56" s="10"/>
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4"/>
@@ -5078,15 +5139,15 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="13"/>
       <c r="H57" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
@@ -5095,20 +5156,20 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
+      <c r="P57" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5141,15 +5202,15 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
@@ -5158,20 +5219,20 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
+      <c r="P58" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5204,15 +5265,15 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="13"/>
       <c r="H59" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
@@ -5221,20 +5282,20 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
+      <c r="P59" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5267,15 +5328,15 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="13"/>
       <c r="H60" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
@@ -5284,20 +5345,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
+      <c r="P60" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="45">
+        <v>45096</v>
+      </c>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42">
+        <v>45097</v>
+      </c>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5316,8 +5383,8 @@
       <c r="AQ60" s="4"/>
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
-      <c r="AT60" s="4"/>
-      <c r="AU60" s="4"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
       <c r="AV60" s="4"/>
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
@@ -5330,15 +5397,15 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="13"/>
       <c r="H61" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -5347,20 +5414,20 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
+      <c r="P61" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5393,15 +5460,15 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="13"/>
       <c r="H62" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
@@ -5410,20 +5477,20 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="20"/>
+      <c r="P62" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5456,15 +5523,15 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="13"/>
       <c r="H63" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -5473,20 +5540,20 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
+      <c r="P63" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5519,15 +5586,15 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="13"/>
       <c r="H64" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -5536,20 +5603,20 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="20"/>
-      <c r="AA64" s="20"/>
+      <c r="P64" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5582,15 +5649,15 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="13"/>
       <c r="H65" s="19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -5599,20 +5666,20 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="20"/>
-      <c r="AA65" s="20"/>
+      <c r="P65" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5645,15 +5712,15 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="13"/>
       <c r="H66" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
@@ -5662,20 +5729,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
+      <c r="P66" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="45">
+        <v>45086</v>
+      </c>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42">
+        <v>45089</v>
+      </c>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5684,10 +5757,10 @@
       <c r="AG66" s="4"/>
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
+      <c r="AJ66" s="10"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
-      <c r="AM66" s="4"/>
+      <c r="AM66" s="10"/>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
       <c r="AP66" s="4"/>
@@ -5708,15 +5781,15 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="13"/>
       <c r="H67" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
@@ -5725,20 +5798,20 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="20"/>
-      <c r="Z67" s="20"/>
-      <c r="AA67" s="20"/>
+      <c r="P67" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -5771,8 +5844,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -5789,15 +5862,15 @@
       <c r="P68" s="54"/>
       <c r="Q68" s="54"/>
       <c r="R68" s="54"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="20"/>
-      <c r="Z68" s="20"/>
-      <c r="AA68" s="20"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -5830,8 +5903,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -5845,18 +5918,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="20"/>
-      <c r="AA69" s="20"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="40"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -5889,8 +5962,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -5904,18 +5977,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="20"/>
-      <c r="Z70" s="20"/>
-      <c r="AA70" s="20"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -5948,8 +6021,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -5963,18 +6036,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="20"/>
-      <c r="Z71" s="20"/>
-      <c r="AA71" s="20"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
+      <c r="AA71" s="40"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6007,8 +6080,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6022,18 +6095,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="20"/>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="20"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
+      <c r="AA72" s="40"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6066,8 +6139,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6081,18 +6154,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="20"/>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="20"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="40"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6125,8 +6198,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6140,18 +6213,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="20"/>
-      <c r="Z74" s="20"/>
-      <c r="AA74" s="20"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
+      <c r="AA74" s="40"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6184,8 +6257,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6199,18 +6272,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="20"/>
-      <c r="Z75" s="20"/>
-      <c r="AA75" s="20"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="40"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6243,8 +6316,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6258,18 +6331,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="20"/>
-      <c r="Z76" s="20"/>
-      <c r="AA76" s="20"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="40"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6302,8 +6375,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6317,18 +6390,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="20"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6361,8 +6434,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6376,18 +6449,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="20"/>
-      <c r="AA78" s="20"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
+      <c r="AA78" s="40"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6428,18 +6501,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="20"/>
-      <c r="Z79" s="20"/>
-      <c r="AA79" s="20"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
+      <c r="AA79" s="40"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6480,18 +6553,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="20"/>
-      <c r="Z80" s="20"/>
-      <c r="AA80" s="20"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
+      <c r="AA80" s="40"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6532,18 +6605,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="20"/>
-      <c r="Z81" s="20"/>
-      <c r="AA81" s="20"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
+      <c r="AA81" s="40"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6584,18 +6657,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="20"/>
-      <c r="Z82" s="20"/>
-      <c r="AA82" s="20"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
+      <c r="AA82" s="40"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6636,18 +6709,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="20"/>
-      <c r="Z83" s="20"/>
-      <c r="AA83" s="20"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
+      <c r="AA83" s="40"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6688,18 +6761,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="40"/>
+      <c r="AA84" s="40"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -6833,170 +6906,251 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C19:G19"/>
@@ -7021,251 +7175,170 @@
     <mergeCell ref="P22:R22"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:U84"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F8744-D142-442A-AC07-B605F84BBF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09F74D4-8754-4A17-B9B7-61E5E24F9513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -657,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -833,13 +833,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,8 +913,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,53 +1021,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,7 +1353,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="V61" sqref="V61:X61"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1354,139 +1370,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="28" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="25">
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="41">
         <v>45078</v>
       </c>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="27"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="28" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="25">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="41">
         <v>45107</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="32" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="31" t="s">
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1611,41 +1627,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32" t="s">
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1768,33 +1784,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1917,35 +1933,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1978,43 +1994,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="42">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23">
         <v>45079</v>
       </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42">
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23">
         <v>45082</v>
       </c>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="40" t="s">
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2047,43 +2063,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="42">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23">
         <v>45079</v>
       </c>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42">
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>45082</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="40" t="s">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2116,43 +2132,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23">
         <v>45079</v>
       </c>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42">
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23">
         <v>45082</v>
       </c>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="40" t="s">
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2185,35 +2201,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2246,43 +2262,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23">
         <v>45082</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42">
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23">
         <v>45084</v>
       </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="40" t="s">
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2315,43 +2331,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="43">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="28">
         <v>45083</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="42">
+      <c r="T13" s="27"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="23">
         <v>45084</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="40" t="s">
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2384,43 +2400,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="42">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23">
         <v>45083</v>
       </c>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42">
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23">
         <v>45085</v>
       </c>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="40" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2453,35 +2469,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2514,41 +2530,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23">
         <v>45085</v>
       </c>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42">
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23">
         <v>45086</v>
       </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="40" t="s">
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2581,41 +2597,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23">
         <v>45085</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42">
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23">
         <v>45085</v>
       </c>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="40" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2648,35 +2664,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2709,13 +2725,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2726,20 +2742,20 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="49"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="35"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2772,13 +2788,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2789,20 +2805,20 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="51"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="31"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2835,13 +2851,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2852,20 +2868,20 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2898,13 +2914,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2915,20 +2931,20 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="51"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="31"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2961,13 +2977,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -2978,20 +2994,20 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -3024,13 +3040,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3041,20 +3057,20 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3087,13 +3103,13 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="18" t="s">
         <v>77</v>
       </c>
@@ -3104,20 +3120,20 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3150,13 +3166,13 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3167,26 +3183,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="45">
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="25">
         <v>45090</v>
       </c>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42">
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23">
         <v>45091</v>
       </c>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="47" t="s">
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="51"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="31"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3205,7 +3221,7 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
-      <c r="AT26" s="55"/>
+      <c r="AT26" s="20"/>
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9"/>
@@ -3219,13 +3235,13 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="14" t="s">
         <v>79</v>
       </c>
@@ -3236,20 +3252,20 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="51"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3282,13 +3298,13 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="14" t="s">
         <v>80</v>
       </c>
@@ -3299,26 +3315,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="45">
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="25">
         <v>45091</v>
       </c>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42">
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23">
         <v>45092</v>
       </c>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="40" t="s">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3351,8 +3367,8 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3368,20 +3384,20 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3414,8 +3430,8 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3431,20 +3447,26 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="20" t="s">
+      <c r="P30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="25">
+        <v>45086</v>
+      </c>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23">
+        <v>45089</v>
+      </c>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3453,10 +3475,10 @@
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
@@ -3477,8 +3499,8 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3494,20 +3516,20 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="20" t="s">
+      <c r="P31" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3540,8 +3562,8 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3557,20 +3579,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="20" t="s">
+      <c r="P32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3603,8 +3625,8 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3620,26 +3642,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="20" t="s">
+      <c r="P33" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="45">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="25">
         <v>45086</v>
       </c>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42">
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23">
         <v>45089</v>
       </c>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="52" t="s">
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3672,8 +3694,8 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3689,20 +3711,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="20" t="s">
+      <c r="P34" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3735,8 +3757,8 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3752,20 +3774,26 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="25">
+        <v>45098</v>
+      </c>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23">
+        <v>45100</v>
+      </c>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3786,9 +3814,9 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
@@ -3798,8 +3826,8 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3815,20 +3843,20 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="20" t="s">
+      <c r="P36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3861,8 +3889,8 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -3878,20 +3906,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3924,8 +3952,8 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -3941,20 +3969,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="25">
+        <v>45098</v>
+      </c>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23">
+        <v>45100</v>
+      </c>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -3975,9 +4009,9 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
       <c r="AY38" s="4"/>
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
@@ -3987,8 +4021,8 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4004,20 +4038,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="20" t="s">
+      <c r="P39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4050,8 +4084,8 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4067,20 +4101,26 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="20" t="s">
+      <c r="P40" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="25">
+        <v>45098</v>
+      </c>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23">
+        <v>45100</v>
+      </c>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4101,9 +4141,9 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
       <c r="AY40" s="4"/>
       <c r="AZ40" s="4"/>
       <c r="BA40" s="4"/>
@@ -4113,8 +4153,8 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4130,20 +4170,26 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="20" t="s">
+      <c r="P41" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="25">
+        <v>45089</v>
+      </c>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23">
+        <v>45090</v>
+      </c>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4155,8 +4201,8 @@
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
@@ -4176,8 +4222,8 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4193,20 +4239,20 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="20" t="s">
+      <c r="P42" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4239,8 +4285,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4256,20 +4302,20 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4302,8 +4348,8 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4319,26 +4365,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="20" t="s">
+      <c r="P44" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="45">
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="25">
         <v>45092</v>
       </c>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42">
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23">
         <v>45089</v>
       </c>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="40" t="s">
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4371,8 +4417,8 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4388,20 +4434,20 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4434,8 +4480,8 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -4451,20 +4497,26 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="20" t="s">
+      <c r="P46" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="25">
+        <v>45092</v>
+      </c>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="28">
+        <v>45097</v>
+      </c>
+      <c r="W46" s="27"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4479,12 +4531,12 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
-      <c r="AS46" s="4"/>
-      <c r="AT46" s="4"/>
-      <c r="AU46" s="4"/>
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
@@ -4497,8 +4549,8 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4514,20 +4566,20 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="20" t="s">
+      <c r="P47" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4560,8 +4612,8 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4577,20 +4629,20 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="20" t="s">
+      <c r="P48" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4623,8 +4675,8 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4640,26 +4692,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="45">
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="25">
         <v>45096</v>
       </c>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42">
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23">
         <v>45097</v>
       </c>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="40" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4692,8 +4744,8 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4709,20 +4761,20 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="20" t="s">
+      <c r="P50" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4755,8 +4807,8 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -4772,20 +4824,26 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="20" t="s">
+      <c r="P51" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="25">
+        <v>45092</v>
+      </c>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="28">
+        <v>45097</v>
+      </c>
+      <c r="W51" s="27"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4800,12 +4858,12 @@
       <c r="AM51" s="4"/>
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-      <c r="AS51" s="4"/>
-      <c r="AT51" s="4"/>
-      <c r="AU51" s="4"/>
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
       <c r="AV51" s="4"/>
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
@@ -4818,8 +4876,8 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -4835,20 +4893,26 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="20" t="s">
+      <c r="P52" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="25">
+        <v>45090</v>
+      </c>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23">
+        <v>45092</v>
+      </c>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4861,9 +4925,9 @@
       <c r="AK52" s="4"/>
       <c r="AL52" s="4"/>
       <c r="AM52" s="4"/>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
@@ -4881,8 +4945,8 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -4898,20 +4962,20 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -4944,8 +5008,8 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -4961,20 +5025,20 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="20" t="s">
+      <c r="P54" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5007,8 +5071,8 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -5024,20 +5088,20 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="20" t="s">
+      <c r="P55" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="40"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5070,8 +5134,8 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -5087,26 +5151,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="20" t="s">
+      <c r="P56" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="45">
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="25">
         <v>45086</v>
       </c>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42">
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23">
         <v>45089</v>
       </c>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="52" t="s">
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5139,8 +5203,8 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -5156,20 +5220,20 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="20" t="s">
+      <c r="P57" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5202,8 +5266,8 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -5219,20 +5283,26 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="20" t="s">
+      <c r="P58" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="25">
+        <v>45092</v>
+      </c>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23">
+        <v>45097</v>
+      </c>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5247,12 +5317,12 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-      <c r="AS58" s="4"/>
-      <c r="AT58" s="4"/>
-      <c r="AU58" s="4"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
       <c r="AV58" s="4"/>
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
@@ -5265,8 +5335,8 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -5282,20 +5352,20 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="20" t="s">
+      <c r="P59" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="40"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5328,8 +5398,8 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5345,26 +5415,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="20" t="s">
+      <c r="P60" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="45">
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="25">
         <v>45096</v>
       </c>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42">
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23">
         <v>45097</v>
       </c>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="40" t="s">
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z60" s="40"/>
-      <c r="AA60" s="40"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5397,8 +5467,8 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5414,20 +5484,20 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="20" t="s">
+      <c r="P61" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5460,8 +5530,8 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -5477,20 +5547,26 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="20" t="s">
+      <c r="P62" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="25">
+        <v>45092</v>
+      </c>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23">
+        <v>45097</v>
+      </c>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5505,12 +5581,12 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
-      <c r="AS62" s="4"/>
-      <c r="AT62" s="4"/>
-      <c r="AU62" s="4"/>
+      <c r="AP62" s="10"/>
+      <c r="AQ62" s="10"/>
+      <c r="AR62" s="10"/>
+      <c r="AS62" s="10"/>
+      <c r="AT62" s="10"/>
+      <c r="AU62" s="10"/>
       <c r="AV62" s="4"/>
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
@@ -5523,8 +5599,8 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5540,20 +5616,26 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="20" t="s">
+      <c r="P63" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="25">
+        <v>45086</v>
+      </c>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23">
+        <v>45090</v>
+      </c>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5562,11 +5644,11 @@
       <c r="AG63" s="4"/>
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
       <c r="AO63" s="4"/>
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
@@ -5586,8 +5668,8 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5603,20 +5685,20 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="20" t="s">
+      <c r="P64" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="40"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5649,8 +5731,8 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5666,20 +5748,20 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="20" t="s">
+      <c r="P65" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5712,8 +5794,8 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5729,26 +5811,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="20" t="s">
+      <c r="P66" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="45">
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="25">
         <v>45086</v>
       </c>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42">
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23">
         <v>45089</v>
       </c>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="52" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="40"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5781,8 +5863,8 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5798,20 +5880,20 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="20" t="s">
+      <c r="P67" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -5844,8 +5926,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -5859,18 +5941,18 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="40"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -5903,8 +5985,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -5918,18 +6000,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -5962,8 +6044,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -5977,18 +6059,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="42"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6021,8 +6103,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6036,18 +6118,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="42"/>
-      <c r="T71" s="42"/>
-      <c r="U71" s="42"/>
-      <c r="V71" s="42"/>
-      <c r="W71" s="42"/>
-      <c r="X71" s="42"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6080,8 +6162,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6095,18 +6177,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="42"/>
-      <c r="T72" s="42"/>
-      <c r="U72" s="42"/>
-      <c r="V72" s="42"/>
-      <c r="W72" s="42"/>
-      <c r="X72" s="42"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6139,8 +6221,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6154,18 +6236,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="42"/>
-      <c r="U73" s="42"/>
-      <c r="V73" s="42"/>
-      <c r="W73" s="42"/>
-      <c r="X73" s="42"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="40"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6198,8 +6280,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6213,18 +6295,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="41"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="42"/>
-      <c r="U74" s="42"/>
-      <c r="V74" s="42"/>
-      <c r="W74" s="42"/>
-      <c r="X74" s="42"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="40"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6257,8 +6339,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6272,18 +6354,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="42"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="40"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6316,8 +6398,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6331,18 +6413,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="42"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6375,8 +6457,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6390,18 +6472,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="42"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6434,8 +6516,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6449,18 +6531,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="42"/>
-      <c r="T78" s="42"/>
-      <c r="U78" s="42"/>
-      <c r="V78" s="42"/>
-      <c r="W78" s="42"/>
-      <c r="X78" s="42"/>
-      <c r="Y78" s="40"/>
-      <c r="Z78" s="40"/>
-      <c r="AA78" s="40"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6501,18 +6583,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="42"/>
-      <c r="T79" s="42"/>
-      <c r="U79" s="42"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="42"/>
-      <c r="X79" s="42"/>
-      <c r="Y79" s="40"/>
-      <c r="Z79" s="40"/>
-      <c r="AA79" s="40"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6553,18 +6635,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="42"/>
-      <c r="T80" s="42"/>
-      <c r="U80" s="42"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="42"/>
-      <c r="X80" s="42"/>
-      <c r="Y80" s="40"/>
-      <c r="Z80" s="40"/>
-      <c r="AA80" s="40"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6605,18 +6687,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="41"/>
-      <c r="Q81" s="41"/>
-      <c r="R81" s="41"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="42"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="42"/>
-      <c r="X81" s="42"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="40"/>
-      <c r="AA81" s="40"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6657,18 +6739,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="42"/>
-      <c r="U82" s="42"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="42"/>
-      <c r="Y82" s="40"/>
-      <c r="Z82" s="40"/>
-      <c r="AA82" s="40"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6709,18 +6791,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="42"/>
-      <c r="T83" s="42"/>
-      <c r="U83" s="42"/>
-      <c r="V83" s="42"/>
-      <c r="W83" s="42"/>
-      <c r="X83" s="42"/>
-      <c r="Y83" s="40"/>
-      <c r="Z83" s="40"/>
-      <c r="AA83" s="40"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6761,18 +6843,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="42"/>
-      <c r="X84" s="42"/>
-      <c r="Y84" s="40"/>
-      <c r="Z84" s="40"/>
-      <c r="AA84" s="40"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -6906,39 +6988,382 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
     <mergeCell ref="P83:R83"/>
     <mergeCell ref="S83:U83"/>
     <mergeCell ref="V83:X83"/>
@@ -6963,382 +7388,39 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09F74D4-8754-4A17-B9B7-61E5E24F9513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC1F9EB-833F-46D0-95E9-70F86B25B359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,53 +916,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,8 +976,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,9 +1351,9 @@
   <dimension ref="A1:BG94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B6"/>
+      <selection pane="bottomLeft" activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1370,139 +1370,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="50" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="44" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="41">
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="26">
         <v>45078</v>
       </c>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="43"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="28"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="44" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="41">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="26">
         <v>45107</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="28"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="48" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48" t="s">
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="47" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1627,41 +1627,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48" t="s">
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1784,33 +1784,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1933,35 +1933,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1994,43 +1994,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23">
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43">
         <v>45079</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23">
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43">
         <v>45082</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="21" t="s">
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2063,43 +2063,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43">
         <v>45079</v>
       </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43">
         <v>45082</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="21" t="s">
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2132,43 +2132,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43">
         <v>45079</v>
       </c>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23">
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43">
         <v>45082</v>
       </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="21" t="s">
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2201,35 +2201,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2262,43 +2262,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23">
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43">
         <v>45082</v>
       </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23">
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43">
         <v>45084</v>
       </c>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="21" t="s">
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2331,43 +2331,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="28">
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="44">
         <v>45083</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="23">
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="43">
         <v>45084</v>
       </c>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="21" t="s">
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2400,43 +2400,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23">
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43">
         <v>45083</v>
       </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23">
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43">
         <v>45085</v>
       </c>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="21" t="s">
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2469,35 +2469,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2530,41 +2530,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23">
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43">
         <v>45085</v>
       </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23">
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43">
         <v>45086</v>
       </c>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="21" t="s">
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2597,41 +2597,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23">
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43">
         <v>45085</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23">
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43">
         <v>45085</v>
       </c>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="21" t="s">
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2664,35 +2664,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2725,13 +2725,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2742,20 +2742,26 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="32" t="s">
+      <c r="P19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="35"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="45">
+        <v>45090</v>
+      </c>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="43">
+        <v>45093</v>
+      </c>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2768,10 +2774,10 @@
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
@@ -2788,13 +2794,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2805,20 +2811,26 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="31"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="46">
+        <v>45096</v>
+      </c>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43">
+        <v>45099</v>
+      </c>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="52"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2837,10 +2849,10 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
       <c r="AX20" s="9"/>
       <c r="AY20" s="9"/>
       <c r="AZ20" s="9"/>
@@ -2851,13 +2863,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2868,20 +2880,26 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="32" t="s">
+      <c r="P21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="46">
+        <v>45089</v>
+      </c>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="45">
+        <v>45090</v>
+      </c>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2893,8 +2911,8 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
@@ -2914,13 +2932,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2931,20 +2949,26 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="31"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="45">
+        <v>45090</v>
+      </c>
+      <c r="T22" s="45"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="43">
+        <v>45093</v>
+      </c>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="52"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2957,10 +2981,10 @@
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="9"/>
@@ -2977,13 +3001,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -2994,20 +3018,26 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="46">
+        <v>45096</v>
+      </c>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43">
+        <v>45099</v>
+      </c>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -3026,10 +3056,10 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
       <c r="AX23" s="9"/>
       <c r="AY23" s="9"/>
       <c r="AZ23" s="9"/>
@@ -3040,13 +3070,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3057,20 +3087,26 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="31"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="46">
+        <v>45089</v>
+      </c>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="45">
+        <v>45090</v>
+      </c>
+      <c r="W24" s="45"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="52"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3082,8 +3118,8 @@
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>
@@ -3103,13 +3139,13 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="18" t="s">
         <v>77</v>
       </c>
@@ -3120,20 +3156,20 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3166,13 +3202,13 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3183,26 +3219,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="25">
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="46">
         <v>45090</v>
       </c>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23">
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43">
         <v>45091</v>
       </c>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="29" t="s">
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="31"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="52"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3235,13 +3271,13 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="14" t="s">
         <v>79</v>
       </c>
@@ -3252,20 +3288,20 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="31"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="52"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3298,13 +3334,13 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="14" t="s">
         <v>80</v>
       </c>
@@ -3315,26 +3351,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="25">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="46">
         <v>45091</v>
       </c>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23">
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43">
         <v>45092</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="21" t="s">
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3367,8 +3403,8 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3384,20 +3420,20 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3430,8 +3466,8 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3447,26 +3483,26 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="25">
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="46">
         <v>45086</v>
       </c>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23">
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43">
         <v>45089</v>
       </c>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="21" t="s">
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3499,8 +3535,8 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3516,20 +3552,20 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3562,8 +3598,8 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3579,20 +3615,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3625,8 +3661,8 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3642,26 +3678,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="32" t="s">
+      <c r="P33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="25">
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="46">
         <v>45086</v>
       </c>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23">
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43">
         <v>45089</v>
       </c>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="26" t="s">
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3694,8 +3730,8 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3711,20 +3747,20 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="32" t="s">
+      <c r="P34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3757,8 +3793,8 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3774,26 +3810,26 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="32" t="s">
+      <c r="P35" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="25">
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="46">
         <v>45098</v>
       </c>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23">
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43">
         <v>45100</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="21" t="s">
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3826,8 +3862,8 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3843,20 +3879,20 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="32" t="s">
+      <c r="P36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3889,8 +3925,8 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -3906,20 +3942,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="32" t="s">
+      <c r="P37" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3952,8 +3988,8 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -3969,26 +4005,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="32" t="s">
+      <c r="P38" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="25">
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="46">
         <v>45098</v>
       </c>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23">
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43">
         <v>45100</v>
       </c>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="21" t="s">
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4021,8 +4057,8 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4038,20 +4074,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="32" t="s">
+      <c r="P39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4084,8 +4120,8 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4101,26 +4137,26 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="25">
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="46">
         <v>45098</v>
       </c>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23">
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43">
         <v>45100</v>
       </c>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="21" t="s">
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4153,8 +4189,8 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4170,26 +4206,26 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="32" t="s">
+      <c r="P41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="25">
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="46">
         <v>45089</v>
       </c>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23">
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43">
         <v>45090</v>
       </c>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="26">
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="53">
         <v>0.5</v>
       </c>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4222,8 +4258,8 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4239,20 +4275,20 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="32" t="s">
+      <c r="P42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4285,8 +4321,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4302,20 +4338,20 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="32" t="s">
+      <c r="P43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4348,8 +4384,8 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4365,26 +4401,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="32" t="s">
+      <c r="P44" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="25">
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="46">
         <v>45092</v>
       </c>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23">
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43">
         <v>45089</v>
       </c>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="21" t="s">
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4417,8 +4453,8 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4434,20 +4470,20 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="32" t="s">
+      <c r="P45" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4480,8 +4516,8 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -4497,26 +4533,26 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="32" t="s">
+      <c r="P46" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="25">
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="46">
         <v>45092</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="28">
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="44">
         <v>45097</v>
       </c>
-      <c r="W46" s="27"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="21" t="s">
+      <c r="W46" s="45"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4549,8 +4585,8 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4566,20 +4602,20 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="32" t="s">
+      <c r="P47" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4612,8 +4648,8 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4629,20 +4665,20 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="32" t="s">
+      <c r="P48" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4675,8 +4711,8 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4692,26 +4728,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="32" t="s">
+      <c r="P49" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="25">
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="46">
         <v>45096</v>
       </c>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23">
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43">
         <v>45097</v>
       </c>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="21" t="s">
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4744,8 +4780,8 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4761,20 +4797,20 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="32" t="s">
+      <c r="P50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4807,8 +4843,8 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -4824,26 +4860,26 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="32" t="s">
+      <c r="P51" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="25">
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="46">
         <v>45092</v>
       </c>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="28">
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="44">
         <v>45097</v>
       </c>
-      <c r="W51" s="27"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="21" t="s">
+      <c r="W51" s="45"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4876,8 +4912,8 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -4893,26 +4929,26 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="32" t="s">
+      <c r="P52" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="25">
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="46">
         <v>45090</v>
       </c>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23">
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43">
         <v>45092</v>
       </c>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="21" t="s">
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
+      <c r="Z52" s="41"/>
+      <c r="AA52" s="41"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4945,8 +4981,8 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -4962,20 +4998,20 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="32" t="s">
+      <c r="P53" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5008,8 +5044,8 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -5025,20 +5061,20 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="32" t="s">
+      <c r="P54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5071,8 +5107,8 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -5088,20 +5124,20 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="32" t="s">
+      <c r="P55" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5134,8 +5170,8 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -5151,26 +5187,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="32" t="s">
+      <c r="P56" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="25">
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="46">
         <v>45086</v>
       </c>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23">
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43">
         <v>45089</v>
       </c>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="26" t="s">
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="41"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5203,8 +5239,8 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -5220,20 +5256,20 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="32" t="s">
+      <c r="P57" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
+      <c r="AA57" s="41"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5266,8 +5302,8 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -5283,26 +5319,26 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="32" t="s">
+      <c r="P58" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="25">
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="46">
         <v>45092</v>
       </c>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23">
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43">
         <v>45097</v>
       </c>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="21" t="s">
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
+      <c r="Z58" s="41"/>
+      <c r="AA58" s="41"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5335,8 +5371,8 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -5352,20 +5388,20 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="32" t="s">
+      <c r="P59" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41"/>
+      <c r="AA59" s="41"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5398,8 +5434,8 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5415,26 +5451,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="32" t="s">
+      <c r="P60" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="25">
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="46">
         <v>45096</v>
       </c>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23">
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43">
         <v>45097</v>
       </c>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="21" t="s">
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5467,8 +5503,8 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5484,20 +5520,20 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="32" t="s">
+      <c r="P61" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="41"/>
+      <c r="Z61" s="41"/>
+      <c r="AA61" s="41"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5530,8 +5566,8 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -5547,26 +5583,26 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="32" t="s">
+      <c r="P62" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="25">
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="46">
         <v>45092</v>
       </c>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23">
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43">
         <v>45097</v>
       </c>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="21" t="s">
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
+      <c r="Z62" s="41"/>
+      <c r="AA62" s="41"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5599,8 +5635,8 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5616,26 +5652,26 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="32" t="s">
+      <c r="P63" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="25">
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="46">
         <v>45086</v>
       </c>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23">
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43">
         <v>45090</v>
       </c>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="26">
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="53">
         <v>0.8</v>
       </c>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
+      <c r="Z63" s="41"/>
+      <c r="AA63" s="41"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5668,8 +5704,8 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5685,20 +5721,20 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="32" t="s">
+      <c r="P64" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
+      <c r="AA64" s="41"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5731,8 +5767,8 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5748,20 +5784,20 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="32" t="s">
+      <c r="P65" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="41"/>
+      <c r="AA65" s="41"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5794,8 +5830,8 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5811,26 +5847,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="32" t="s">
+      <c r="P66" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="25">
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="46">
         <v>45086</v>
       </c>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23">
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43">
         <v>45089</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="26" t="s">
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
+      <c r="Z66" s="41"/>
+      <c r="AA66" s="41"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5863,8 +5899,8 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5880,20 +5916,20 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="32" t="s">
+      <c r="P67" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
+      <c r="AA67" s="41"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -5926,8 +5962,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -5941,18 +5977,18 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
+      <c r="AA68" s="41"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -5985,8 +6021,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6000,18 +6036,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6044,8 +6080,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6059,18 +6095,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="21"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="41"/>
+      <c r="AA70" s="41"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6103,8 +6139,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6118,18 +6154,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-      <c r="AA71" s="21"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="41"/>
+      <c r="Z71" s="41"/>
+      <c r="AA71" s="41"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6162,8 +6198,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6177,18 +6213,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="41"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6221,8 +6257,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6236,18 +6272,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6280,8 +6316,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6295,18 +6331,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="23"/>
-      <c r="W74" s="23"/>
-      <c r="X74" s="23"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6339,8 +6375,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6354,18 +6390,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6398,8 +6434,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6413,18 +6449,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="23"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="21"/>
-      <c r="Z76" s="21"/>
-      <c r="AA76" s="21"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6457,8 +6493,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6472,18 +6508,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
-      <c r="AA77" s="21"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+      <c r="AA77" s="41"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6516,8 +6552,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6531,18 +6567,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="21"/>
-      <c r="AA78" s="21"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6583,18 +6619,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="23"/>
-      <c r="T79" s="23"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="23"/>
-      <c r="W79" s="23"/>
-      <c r="X79" s="23"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="21"/>
-      <c r="AA79" s="21"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="41"/>
+      <c r="Z79" s="41"/>
+      <c r="AA79" s="41"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6635,18 +6671,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="21"/>
-      <c r="Z80" s="21"/>
-      <c r="AA80" s="21"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="41"/>
+      <c r="Z80" s="41"/>
+      <c r="AA80" s="41"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6687,18 +6723,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="21"/>
-      <c r="AA81" s="21"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6739,18 +6775,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
-      <c r="AA82" s="21"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="43"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="43"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6791,18 +6827,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="21"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6843,18 +6879,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="21"/>
-      <c r="AA84" s="21"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="43"/>
+      <c r="W84" s="43"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -6988,170 +7024,251 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C19:G19"/>
@@ -7176,251 +7293,170 @@
     <mergeCell ref="P22:R22"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:U84"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="Y84:AA84"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/mippy進捗管理表.xlsx
+++ b/doc/mippy進捗管理表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC1F9EB-833F-46D0-95E9-70F86B25B359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7309D4B-9D76-485E-AC3B-53CFB000744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -916,8 +916,56 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,54 +1022,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1350,159 +1350,159 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="AD23" sqref="AD23"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="3.25" style="1"/>
-    <col min="15" max="15" width="9.25" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.25" style="1"/>
-    <col min="19" max="19" width="4.08203125" style="1" customWidth="1"/>
-    <col min="20" max="27" width="3.25" style="1"/>
-    <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
-    <col min="30" max="32" width="3.25" style="1"/>
-    <col min="33" max="33" width="3.25" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="3.25" style="1"/>
+    <col min="1" max="14" width="3.26953125" style="1"/>
+    <col min="15" max="15" width="9.26953125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3.26953125" style="1"/>
+    <col min="19" max="19" width="4.08984375" style="1" customWidth="1"/>
+    <col min="20" max="27" width="3.26953125" style="1"/>
+    <col min="28" max="29" width="3.26953125" style="1" customWidth="1"/>
+    <col min="30" max="32" width="3.26953125" style="1"/>
+    <col min="33" max="33" width="3.26953125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="29" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="26">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="42">
         <v>45078</v>
       </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="28"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="29" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="26">
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="42">
         <v>45107</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="28"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="33" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="32" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1627,41 +1627,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1784,33 +1784,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1933,35 +1933,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
@@ -1994,43 +1994,43 @@
       <c r="BE7" s="9"/>
     </row>
     <row r="8" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23">
         <v>45079</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43">
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23">
         <v>45082</v>
       </c>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="41" t="s">
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="10"/>
@@ -2063,43 +2063,43 @@
       <c r="BE8" s="9"/>
     </row>
     <row r="9" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43">
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23">
         <v>45079</v>
       </c>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43">
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>45082</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="41" t="s">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10"/>
@@ -2132,43 +2132,43 @@
       <c r="BE9" s="9"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23">
         <v>45079</v>
       </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43">
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23">
         <v>45082</v>
       </c>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="41" t="s">
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10"/>
@@ -2201,35 +2201,35 @@
       <c r="BE10" s="9"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -2262,43 +2262,43 @@
       <c r="BE11" s="9"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23">
         <v>45082</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43">
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23">
         <v>45084</v>
       </c>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="41" t="s">
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -2331,43 +2331,43 @@
       <c r="BE12" s="9"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="44">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="27">
         <v>45083</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="43">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="23">
         <v>45084</v>
       </c>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="41" t="s">
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2400,43 +2400,43 @@
       <c r="BE13" s="9"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23">
         <v>45083</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43">
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23">
         <v>45085</v>
       </c>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="41" t="s">
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -2469,35 +2469,35 @@
       <c r="BE14" s="9"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2530,41 +2530,41 @@
       <c r="BE15" s="9"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="43">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23">
         <v>45085</v>
       </c>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43">
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23">
         <v>45086</v>
       </c>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="41" t="s">
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2597,41 +2597,41 @@
       <c r="BE16" s="9"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23">
         <v>45085</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43">
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23">
         <v>45085</v>
       </c>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="41" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2664,35 +2664,35 @@
       <c r="BE17" s="9"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2725,13 +2725,13 @@
       <c r="BE18" s="9"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="18" t="s">
         <v>27</v>
       </c>
@@ -2742,26 +2742,26 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="45">
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="28">
         <v>45090</v>
       </c>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="43">
+      <c r="T19" s="28"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="23">
         <v>45093</v>
       </c>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="48">
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="36"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2794,13 +2794,13 @@
       <c r="BE19" s="9"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="18" t="s">
         <v>28</v>
       </c>
@@ -2811,26 +2811,26 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="46">
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="25">
         <v>45096</v>
       </c>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43">
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23">
         <v>45099</v>
       </c>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="48">
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="30">
         <v>0.1</v>
       </c>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="52"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="32"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2863,13 +2863,13 @@
       <c r="BE20" s="9"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="14" t="s">
         <v>29</v>
       </c>
@@ -2880,26 +2880,26 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="46">
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="25">
         <v>45089</v>
       </c>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="45">
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="28">
         <v>45090</v>
       </c>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="53">
+      <c r="W21" s="28"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="26">
         <v>0.8</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2932,13 +2932,13 @@
       <c r="BE21" s="9"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2949,26 +2949,26 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="45">
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="28">
         <v>45090</v>
       </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="43">
+      <c r="T22" s="28"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="23">
         <v>45093</v>
       </c>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="48">
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="30">
         <v>0.5</v>
       </c>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -3001,13 +3001,13 @@
       <c r="BE22" s="9"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="18" t="s">
         <v>31</v>
       </c>
@@ -3018,26 +3018,26 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="46">
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="25">
         <v>45096</v>
       </c>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43">
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23">
         <v>45099</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="53">
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="26">
         <v>0.1</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -3070,13 +3070,13 @@
       <c r="BE23" s="9"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
@@ -3087,26 +3087,26 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="46">
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="25">
         <v>45089</v>
       </c>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="45">
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="28">
         <v>45090</v>
       </c>
-      <c r="W24" s="45"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="48">
+      <c r="W24" s="28"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="30">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="52"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="32"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -3139,13 +3139,13 @@
       <c r="BE24" s="9"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="18" t="s">
         <v>77</v>
       </c>
@@ -3156,20 +3156,26 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="29">
+        <v>45097</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="23">
+        <v>45099</v>
+      </c>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3202,13 +3208,13 @@
       <c r="BE25" s="9"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3219,26 +3225,26 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="46">
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="25">
         <v>45090</v>
       </c>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43">
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23">
         <v>45091</v>
       </c>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="48" t="s">
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="52"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3271,13 +3277,13 @@
       <c r="BE26" s="9"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="14" t="s">
         <v>79</v>
       </c>
@@ -3288,20 +3294,20 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="52"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3334,13 +3340,13 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="14" t="s">
         <v>80</v>
       </c>
@@ -3351,26 +3357,26 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="46">
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="25">
         <v>45091</v>
       </c>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43">
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23">
         <v>45092</v>
       </c>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="41" t="s">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3403,8 +3409,8 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3420,20 +3426,20 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3466,8 +3472,8 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3483,26 +3489,26 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="46">
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="25">
         <v>45086</v>
       </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43">
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23">
         <v>45089</v>
       </c>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="41" t="s">
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3535,8 +3541,8 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3552,20 +3558,26 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="21" t="s">
+      <c r="P31" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="25">
+        <v>45097</v>
+      </c>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23">
+        <v>45099</v>
+      </c>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3598,8 +3610,8 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3615,20 +3627,20 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="21" t="s">
+      <c r="P32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3661,8 +3673,8 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -3678,26 +3690,26 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="46">
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="25">
         <v>45086</v>
       </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43">
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23">
         <v>45089</v>
       </c>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="53" t="s">
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3730,8 +3742,8 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3747,20 +3759,26 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="21" t="s">
+      <c r="P34" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="29">
+        <v>45086</v>
+      </c>
+      <c r="T34" s="28"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="23">
+        <v>45091</v>
+      </c>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3793,8 +3811,8 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3810,26 +3828,26 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="46">
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="25">
         <v>45098</v>
       </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43">
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23">
         <v>45100</v>
       </c>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="41" t="s">
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3862,8 +3880,8 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3879,20 +3897,20 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3925,8 +3943,8 @@
       <c r="BE36" s="4"/>
     </row>
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -3942,20 +3960,20 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="21" t="s">
+      <c r="P37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -3988,8 +4006,8 @@
       <c r="BE37" s="4"/>
     </row>
     <row r="38" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -4005,26 +4023,26 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="46">
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="25">
         <v>45098</v>
       </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43">
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23">
         <v>45100</v>
       </c>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="41" t="s">
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -4057,8 +4075,8 @@
       <c r="BE38" s="4"/>
     </row>
     <row r="39" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4074,20 +4092,20 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -4120,8 +4138,8 @@
       <c r="BE39" s="4"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4137,26 +4155,26 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="46">
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="25">
         <v>45098</v>
       </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43">
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23">
         <v>45100</v>
       </c>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="41" t="s">
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -4189,8 +4207,8 @@
       <c r="BE40" s="4"/>
     </row>
     <row r="41" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -4206,26 +4224,26 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="46">
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="25">
         <v>45089</v>
       </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43">
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23">
         <v>45090</v>
       </c>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="53">
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -4258,8 +4276,8 @@
       <c r="BE41" s="4"/>
     </row>
     <row r="42" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -4275,20 +4293,20 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="21" t="s">
+      <c r="P42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -4321,8 +4339,8 @@
       <c r="BE42" s="4"/>
     </row>
     <row r="43" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -4338,20 +4356,20 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="21" t="s">
+      <c r="P43" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4384,8 +4402,8 @@
       <c r="BE43" s="4"/>
     </row>
     <row r="44" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4401,26 +4419,26 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="21" t="s">
+      <c r="P44" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="46">
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="25">
         <v>45092</v>
       </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43">
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23">
         <v>45089</v>
       </c>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="41" t="s">
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
@@ -4453,8 +4471,8 @@
       <c r="BE44" s="4"/>
     </row>
     <row r="45" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4470,20 +4488,26 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="21" t="s">
+      <c r="P45" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="25">
+        <v>45096</v>
+      </c>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23">
+        <v>45098</v>
+      </c>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
@@ -4516,8 +4540,8 @@
       <c r="BE45" s="4"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -4533,26 +4557,26 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="21" t="s">
+      <c r="P46" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="46">
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="25">
         <v>45092</v>
       </c>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="44">
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="27">
         <v>45097</v>
       </c>
-      <c r="W46" s="45"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="41" t="s">
+      <c r="W46" s="28"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
@@ -4585,8 +4609,8 @@
       <c r="BE46" s="4"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -4602,20 +4626,20 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="21" t="s">
+      <c r="P47" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
@@ -4648,8 +4672,8 @@
       <c r="BE47" s="4"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4665,20 +4689,20 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="21" t="s">
+      <c r="P48" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
@@ -4711,8 +4735,8 @@
       <c r="BE48" s="4"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4728,26 +4752,26 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="21" t="s">
+      <c r="P49" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="46">
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="25">
         <v>45096</v>
       </c>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43">
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23">
         <v>45097</v>
       </c>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="41" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
@@ -4780,8 +4804,8 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -4797,20 +4821,20 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="21" t="s">
+      <c r="P50" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
@@ -4843,8 +4867,8 @@
       <c r="BE50" s="4"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -4860,26 +4884,26 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="21" t="s">
+      <c r="P51" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="46">
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="25">
         <v>45092</v>
       </c>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="44">
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="27">
         <v>45097</v>
       </c>
-      <c r="W51" s="45"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="41" t="s">
+      <c r="W51" s="28"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
@@ -4912,8 +4936,8 @@
       <c r="BE51" s="4"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -4929,26 +4953,26 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="21" t="s">
+      <c r="P52" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="46">
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="25">
         <v>45090</v>
       </c>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43">
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23">
         <v>45092</v>
       </c>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="41" t="s">
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
@@ -4981,8 +5005,8 @@
       <c r="BE52" s="4"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -4998,20 +5022,20 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="21" t="s">
+      <c r="P53" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
@@ -5044,8 +5068,8 @@
       <c r="BE53" s="4"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -5061,20 +5085,20 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="21" t="s">
+      <c r="P54" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
@@ -5107,8 +5131,8 @@
       <c r="BE54" s="4"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -5124,20 +5148,26 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="21" t="s">
+      <c r="P55" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="25">
+        <v>45098</v>
+      </c>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23">
+        <v>45100</v>
+      </c>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
@@ -5170,8 +5200,8 @@
       <c r="BE55" s="4"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -5187,26 +5217,26 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="17"/>
-      <c r="P56" s="21" t="s">
+      <c r="P56" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="46">
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="25">
         <v>45086</v>
       </c>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43">
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23">
         <v>45089</v>
       </c>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="53" t="s">
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
@@ -5239,8 +5269,8 @@
       <c r="BE56" s="4"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -5256,20 +5286,26 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="21" t="s">
+      <c r="P57" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="25">
+        <v>45090</v>
+      </c>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23">
+        <v>45091</v>
+      </c>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
@@ -5282,8 +5318,8 @@
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
       <c r="AM57" s="4"/>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
       <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
       <c r="AR57" s="4"/>
@@ -5302,8 +5338,8 @@
       <c r="BE57" s="4"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -5319,26 +5355,26 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="21" t="s">
+      <c r="P58" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="46">
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="25">
         <v>45092</v>
       </c>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43">
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23">
         <v>45097</v>
       </c>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="41" t="s">
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
@@ -5371,8 +5407,8 @@
       <c r="BE58" s="4"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -5388,20 +5424,20 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="21" t="s">
+      <c r="P59" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
@@ -5434,8 +5470,8 @@
       <c r="BE59" s="4"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -5451,26 +5487,26 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="17"/>
-      <c r="P60" s="21" t="s">
+      <c r="P60" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="46">
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="25">
         <v>45096</v>
       </c>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43">
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23">
         <v>45097</v>
       </c>
-      <c r="W60" s="43"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="41" t="s">
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
@@ -5503,8 +5539,8 @@
       <c r="BE60" s="4"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -5520,20 +5556,20 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="21" t="s">
+      <c r="P61" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
@@ -5566,8 +5602,8 @@
       <c r="BE61" s="4"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -5583,26 +5619,26 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="17"/>
-      <c r="P62" s="21" t="s">
+      <c r="P62" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="46">
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="25">
         <v>45092</v>
       </c>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43">
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23">
         <v>45097</v>
       </c>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="41" t="s">
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
@@ -5635,8 +5671,8 @@
       <c r="BE62" s="4"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -5652,26 +5688,26 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="21" t="s">
+      <c r="P63" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="46">
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="25">
         <v>45086</v>
       </c>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43">
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23">
         <v>45090</v>
       </c>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="53">
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="26">
         <v>0.8</v>
       </c>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
@@ -5704,8 +5740,8 @@
       <c r="BE63" s="4"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -5721,20 +5757,20 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="21" t="s">
+      <c r="P64" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
@@ -5767,8 +5803,8 @@
       <c r="BE64" s="4"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5784,20 +5820,20 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="21" t="s">
+      <c r="P65" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
@@ -5830,8 +5866,8 @@
       <c r="BE65" s="4"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5847,26 +5883,26 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="17"/>
-      <c r="P66" s="21" t="s">
+      <c r="P66" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="46">
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="25">
         <v>45086</v>
       </c>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43">
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23">
         <v>45089</v>
       </c>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="53" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
@@ -5899,8 +5935,8 @@
       <c r="BE66" s="4"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5916,20 +5952,26 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="21" t="s">
+      <c r="P67" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="25">
+        <v>45086</v>
+      </c>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23">
+        <v>45091</v>
+      </c>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
@@ -5938,11 +5980,11 @@
       <c r="AG67" s="4"/>
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
-      <c r="AK67" s="4"/>
-      <c r="AL67" s="4"/>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="4"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
@@ -5962,8 +6004,8 @@
       <c r="BE67" s="4"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -5977,18 +6019,18 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="41"/>
-      <c r="AA68" s="41"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -6021,8 +6063,8 @@
       <c r="BE68" s="4"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6036,18 +6078,18 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -6080,8 +6122,8 @@
       <c r="BE69" s="4"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6095,18 +6137,18 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="41"/>
-      <c r="Z70" s="41"/>
-      <c r="AA70" s="41"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -6139,8 +6181,8 @@
       <c r="BE70" s="4"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6154,18 +6196,18 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="42"/>
-      <c r="R71" s="42"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="41"/>
-      <c r="AA71" s="41"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
@@ -6198,8 +6240,8 @@
       <c r="BE71" s="4"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6213,18 +6255,18 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="41"/>
-      <c r="AA72" s="41"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
@@ -6257,8 +6299,8 @@
       <c r="BE72" s="4"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6272,18 +6314,18 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
@@ -6316,8 +6358,8 @@
       <c r="BE73" s="4"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6331,18 +6373,18 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="41"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
@@ -6375,8 +6417,8 @@
       <c r="BE74" s="4"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6390,18 +6432,18 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="17"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
@@ -6434,8 +6476,8 @@
       <c r="BE75" s="4"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6449,18 +6491,18 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="21"/>
+      <c r="Z76" s="21"/>
+      <c r="AA76" s="21"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
@@ -6493,8 +6535,8 @@
       <c r="BE76" s="4"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6508,18 +6550,18 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="17"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
@@ -6552,8 +6594,8 @@
       <c r="BE77" s="4"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6567,18 +6609,18 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="17"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
-      <c r="AA78" s="41"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
@@ -6619,18 +6661,18 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="17"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="41"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
@@ -6671,18 +6713,18 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="41"/>
-      <c r="Z80" s="41"/>
-      <c r="AA80" s="41"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6723,18 +6765,18 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
       <c r="O81" s="17"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="41"/>
-      <c r="Z81" s="41"/>
-      <c r="AA81" s="41"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6775,18 +6817,18 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="17"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
@@ -6827,18 +6869,18 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
       <c r="O83" s="17"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
-      <c r="AA83" s="41"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
@@ -6879,18 +6921,18 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
       <c r="O84" s="17"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="41"/>
-      <c r="AA84" s="41"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
@@ -7024,39 +7066,382 @@
     </row>
   </sheetData>
   <mergeCells count="433">
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="Y82:AA82"/>
     <mergeCell ref="P83:R83"/>
     <mergeCell ref="S83:U83"/>
     <mergeCell ref="V83:X83"/>
@@ -7081,382 +7466,39 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
